--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X19 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X19 2200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,31 +135,392 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,20 +528,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +838,1326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.00108796296296296</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.0012037037037037</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00131944444444444</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.00143518518518519</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00155092592592593</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00178240740740741</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00189814814814815</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00201388888888889</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00212962962962963</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00224537037037037</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00236111111111111</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00247685185185185</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00259259259259259</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00282407407407407</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00293981481481481</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.00305555555555556</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.0031712962962963</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00328703703703704</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00340277777777778</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00351851851851852</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00363425925925926</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00375</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00386574074074074</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00398148148148148</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00409722222222222</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00421296296296296</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.0043287037037037</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00456018518518519</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00467592592592593</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00490740740740741</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00502314814814815</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00513888888888889</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00525462962962963</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00537037037037037</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00548611111111111</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00560185185185185</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00571759259259259</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00594907407407407</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00606481481481481</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.00618055555555556</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.0062962962962963</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00641203703703704</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00652777777777778</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00664351851851852</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00675925925925926</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.006875</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00699074074074074</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00710648148148148</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00722222222222222</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.00733796296296296</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.0074537037037037</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00756944444444444</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00768518518518518</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00780092592592593</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00803240740740741</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00814814814814815</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00826388888888889</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00837962962962963</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00849537037037037</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00861111111111111</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00872685185185185</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00884259259259259</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00907407407407407</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00918981481481481</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.00930555555555555</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.0094212962962963</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00953703703703704</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00965277777777778</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00976851851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.05</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.76</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.58</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="899173870"/>
+        <c:axId val="411022732"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="899173870"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411022732"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411022732"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="899173870"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="15506700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,21 +2441,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M64" workbookViewId="0">
-      <selection activeCell="U79" sqref="U4:AI79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -525,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -584,52 +2536,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -646,15 +2598,15 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.43798611111111113</v>
+        <v>0.437986111111111</v>
       </c>
       <c r="C6">
-        <v>80.709999999999994</v>
+        <v>80.71</v>
       </c>
       <c r="D6">
         <v>76.03</v>
@@ -690,7 +2642,7 @@
         <v>1969.59</v>
       </c>
       <c r="O6">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="P6">
         <v>95.47</v>
@@ -699,7 +2651,7 @@
         <v>41.21</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -717,21 +2669,21 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>7.407407407407407E-4</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="B7" s="1">
-        <v>0.43872685185185184</v>
+        <v>0.438726851851852</v>
       </c>
       <c r="C7">
-        <v>65.069999999999993</v>
+        <v>65.07</v>
       </c>
       <c r="D7">
         <v>71.06</v>
       </c>
       <c r="E7">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F7">
         <v>2.68</v>
@@ -749,7 +2701,7 @@
         <v>125</v>
       </c>
       <c r="K7">
-        <v>75.819999999999993</v>
+        <v>75.82</v>
       </c>
       <c r="L7">
         <v>119.46</v>
@@ -758,7 +2710,7 @@
         <v>1494.62</v>
       </c>
       <c r="N7">
-        <v>2569.7199999999998</v>
+        <v>2569.72</v>
       </c>
       <c r="O7">
         <v>3.19</v>
@@ -785,12 +2737,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>8.564814814814815E-4</v>
+        <v>0.000856481481481482</v>
       </c>
       <c r="B8" s="1">
-        <v>0.43884259259259256</v>
+        <v>0.438842592592593</v>
       </c>
       <c r="C8">
         <v>67.34</v>
@@ -817,7 +2769,7 @@
         <v>124.64</v>
       </c>
       <c r="K8">
-        <v>73.180000000000007</v>
+        <v>73.18</v>
       </c>
       <c r="L8">
         <v>121.41</v>
@@ -826,7 +2778,7 @@
         <v>1374.55</v>
       </c>
       <c r="N8">
-        <v>2363.2800000000002</v>
+        <v>2363.28</v>
       </c>
       <c r="O8">
         <v>3.27</v>
@@ -853,21 +2805,21 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>9.7222222222222209E-4</v>
+        <v>0.000972222222222222</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43895833333333334</v>
+        <v>0.438958333333333</v>
       </c>
       <c r="C9">
-        <v>65.739999999999995</v>
+        <v>65.74</v>
       </c>
       <c r="D9">
         <v>76.98</v>
       </c>
       <c r="E9">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F9">
         <v>2.94</v>
@@ -921,12 +2873,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>1.0879629629629629E-3</v>
+        <v>0.00108796296296296</v>
       </c>
       <c r="B10" s="1">
-        <v>0.43907407407407412</v>
+        <v>0.439074074074074</v>
       </c>
       <c r="C10">
         <v>65.53</v>
@@ -935,7 +2887,7 @@
         <v>76.56</v>
       </c>
       <c r="E10">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="F10">
         <v>2.92</v>
@@ -959,7 +2911,7 @@
         <v>126.53</v>
       </c>
       <c r="M10">
-        <v>1289.8399999999999</v>
+        <v>1289.84</v>
       </c>
       <c r="N10">
         <v>2217.64</v>
@@ -989,12 +2941,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>1.2037037037037038E-3</v>
+        <v>0.0012037037037037</v>
       </c>
       <c r="B11" s="1">
-        <v>0.43918981481481478</v>
+        <v>0.439189814814815</v>
       </c>
       <c r="C11">
         <v>63.97</v>
@@ -1015,7 +2967,7 @@
         <v>357.82</v>
       </c>
       <c r="I11">
-        <v>132.08000000000001</v>
+        <v>132.08</v>
       </c>
       <c r="J11">
         <v>125.36</v>
@@ -1057,21 +3009,21 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>1.3194444444444443E-3</v>
+        <v>0.00131944444444444</v>
       </c>
       <c r="B12" s="1">
-        <v>0.43930555555555556</v>
+        <v>0.439305555555556</v>
       </c>
       <c r="C12">
         <v>61.41</v>
       </c>
       <c r="D12">
-        <v>75.540000000000006</v>
+        <v>75.54</v>
       </c>
       <c r="E12">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="F12">
         <v>2.7</v>
@@ -1089,7 +3041,7 @@
         <v>125.6</v>
       </c>
       <c r="K12">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="L12">
         <v>124.37</v>
@@ -1125,18 +3077,18 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>1.4351851851851854E-3</v>
+        <v>0.00143518518518519</v>
       </c>
       <c r="B13" s="1">
-        <v>0.43942129629629628</v>
+        <v>0.439421296296296</v>
       </c>
       <c r="C13">
         <v>64.16</v>
       </c>
       <c r="D13">
-        <v>75.430000000000007</v>
+        <v>75.43</v>
       </c>
       <c r="E13">
         <v>4.84</v>
@@ -1193,12 +3145,12 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.5509259259259261E-3</v>
+        <v>0.00155092592592593</v>
       </c>
       <c r="B14" s="1">
-        <v>0.43953703703703706</v>
+        <v>0.439537037037037</v>
       </c>
       <c r="C14">
         <v>65.67</v>
@@ -1243,7 +3195,7 @@
         <v>100.94</v>
       </c>
       <c r="Q14">
-        <v>39.549999999999997</v>
+        <v>39.55</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1261,12 +3213,12 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.6666666666666668E-3</v>
+        <v>0.00166666666666667</v>
       </c>
       <c r="B15" s="1">
-        <v>0.43965277777777773</v>
+        <v>0.439652777777778</v>
       </c>
       <c r="C15">
         <v>65.34</v>
@@ -1275,7 +3227,7 @@
         <v>74.86</v>
       </c>
       <c r="E15">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="F15">
         <v>2.85</v>
@@ -1302,7 +3254,7 @@
         <v>1313.74</v>
       </c>
       <c r="N15">
-        <v>2258.7399999999998</v>
+        <v>2258.74</v>
       </c>
       <c r="O15">
         <v>3.16</v>
@@ -1311,7 +3263,7 @@
         <v>100.15</v>
       </c>
       <c r="Q15">
-        <v>37.450000000000003</v>
+        <v>37.45</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1329,12 +3281,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.7824074074074072E-3</v>
+        <v>0.00178240740740741</v>
       </c>
       <c r="B16" s="1">
-        <v>0.4397685185185185</v>
+        <v>0.439768518518519</v>
       </c>
       <c r="C16">
         <v>70.83</v>
@@ -1370,7 +3322,7 @@
         <v>1229.01</v>
       </c>
       <c r="N16">
-        <v>2113.0500000000002</v>
+        <v>2113.05</v>
       </c>
       <c r="O16">
         <v>3.35</v>
@@ -1379,7 +3331,7 @@
         <v>94.84</v>
       </c>
       <c r="Q16">
-        <v>37.840000000000003</v>
+        <v>37.84</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1397,12 +3349,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.8981481481481482E-3</v>
+        <v>0.00189814814814815</v>
       </c>
       <c r="B17" s="1">
-        <v>0.43988425925925928</v>
+        <v>0.439884259259259</v>
       </c>
       <c r="C17">
         <v>67.81</v>
@@ -1465,9 +3417,9 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>2.0138888888888888E-3</v>
+        <v>0.00201388888888889</v>
       </c>
       <c r="B18" s="1">
         <v>0.44</v>
@@ -1515,7 +3467,7 @@
         <v>94.46</v>
       </c>
       <c r="Q18">
-        <v>35.950000000000003</v>
+        <v>35.95</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1533,12 +3485,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>2.1296296296296298E-3</v>
+        <v>0.00212962962962963</v>
       </c>
       <c r="B19" s="1">
-        <v>0.44011574074074072</v>
+        <v>0.440115740740741</v>
       </c>
       <c r="C19">
         <v>67.98</v>
@@ -1565,7 +3517,7 @@
         <v>123.91</v>
       </c>
       <c r="K19">
-        <v>74.180000000000007</v>
+        <v>74.18</v>
       </c>
       <c r="L19">
         <v>119.76</v>
@@ -1574,7 +3526,7 @@
         <v>1399.23</v>
       </c>
       <c r="N19">
-        <v>2405.7199999999998</v>
+        <v>2405.72</v>
       </c>
       <c r="O19">
         <v>3.25</v>
@@ -1601,15 +3553,15 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>2.2453703703703702E-3</v>
+        <v>0.00224537037037037</v>
       </c>
       <c r="B20" s="1">
-        <v>0.44023148148148145</v>
+        <v>0.440231481481481</v>
       </c>
       <c r="C20">
-        <v>70.680000000000007</v>
+        <v>70.68</v>
       </c>
       <c r="D20">
         <v>70.84</v>
@@ -1669,12 +3621,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>2.3611111111111111E-3</v>
+        <v>0.00236111111111111</v>
       </c>
       <c r="B21" s="1">
-        <v>0.44034722222222222</v>
+        <v>0.440347222222222</v>
       </c>
       <c r="C21">
         <v>67.92</v>
@@ -1737,15 +3689,15 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>2.4768518518518516E-3</v>
+        <v>0.00247685185185185</v>
       </c>
       <c r="B22" s="1">
         <v>0.440462962962963</v>
       </c>
       <c r="C22">
-        <v>66.760000000000005</v>
+        <v>66.76</v>
       </c>
       <c r="D22">
         <v>74.77</v>
@@ -1769,7 +3721,7 @@
         <v>125.27</v>
       </c>
       <c r="K22">
-        <v>76.180000000000007</v>
+        <v>76.18</v>
       </c>
       <c r="L22">
         <v>124.6</v>
@@ -1778,7 +3730,7 @@
         <v>1375.53</v>
       </c>
       <c r="N22">
-        <v>2364.9699999999998</v>
+        <v>2364.97</v>
       </c>
       <c r="O22">
         <v>3.45</v>
@@ -1787,7 +3739,7 @@
         <v>91.79</v>
       </c>
       <c r="Q22">
-        <v>39.450000000000003</v>
+        <v>39.45</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -1805,15 +3757,15 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.5925925925925925E-3</v>
+        <v>0.00259259259259259</v>
       </c>
       <c r="B23" s="1">
-        <v>0.44057870370370367</v>
+        <v>0.440578703703704</v>
       </c>
       <c r="C23">
-        <v>65.739999999999995</v>
+        <v>65.74</v>
       </c>
       <c r="D23">
         <v>72.23</v>
@@ -1873,12 +3825,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.7083333333333334E-3</v>
+        <v>0.00270833333333333</v>
       </c>
       <c r="B24" s="1">
-        <v>0.44069444444444444</v>
+        <v>0.440694444444444</v>
       </c>
       <c r="C24">
         <v>70.64</v>
@@ -1941,12 +3893,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.8240740740740739E-3</v>
+        <v>0.00282407407407407</v>
       </c>
       <c r="B25" s="1">
-        <v>0.44081018518518517</v>
+        <v>0.440810185185185</v>
       </c>
       <c r="C25">
         <v>70.64</v>
@@ -1994,47 +3946,47 @@
         <v>44.66</v>
       </c>
       <c r="S25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U25" s="2">
         <f>AVERAGE(C6:C25)</f>
-        <v>67.527500000000003</v>
+        <v>67.5275</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" ref="V25:AI25" si="0">AVERAGE(D6:D25)</f>
-        <v>73.896000000000001</v>
+        <v>73.896</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>4.9879999999999995</v>
+        <v>4.988</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="0"/>
-        <v>2.9009999999999998</v>
+        <v>2.901</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="0"/>
-        <v>59.812500000000014</v>
+        <v>59.8125</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="0"/>
-        <v>387.24850000000004</v>
+        <v>387.2485</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="0"/>
-        <v>122.18650000000002</v>
+        <v>122.1865</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="0"/>
-        <v>124.32450000000001</v>
+        <v>124.3245</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="0"/>
-        <v>72.428500000000014</v>
+        <v>72.4285</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="0"/>
-        <v>123.52949999999998</v>
+        <v>123.5295</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="0"/>
@@ -2042,27 +3994,27 @@
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="0"/>
-        <v>2302.2035000000001</v>
+        <v>2302.2035</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="0"/>
-        <v>3.3454999999999999</v>
+        <v>3.3455</v>
       </c>
       <c r="AH25" s="2">
         <f t="shared" si="0"/>
-        <v>96.891499999999994</v>
+        <v>96.8915</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="0"/>
-        <v>39.769500000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39.7695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.9398148148148148E-3</v>
+        <v>0.00293981481481481</v>
       </c>
       <c r="B26" s="1">
-        <v>0.44092592592592594</v>
+        <v>0.440925925925926</v>
       </c>
       <c r="C26">
         <v>69.97</v>
@@ -2098,7 +4050,7 @@
         <v>1397.62</v>
       </c>
       <c r="N26">
-        <v>2402.9499999999998</v>
+        <v>2402.95</v>
       </c>
       <c r="O26">
         <v>3.58</v>
@@ -2125,21 +4077,21 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>3.0555555555555557E-3</v>
+        <v>0.00305555555555556</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44104166666666672</v>
+        <v>0.441041666666667</v>
       </c>
       <c r="C27">
-        <v>71.510000000000005</v>
+        <v>71.51</v>
       </c>
       <c r="D27">
         <v>70.81</v>
       </c>
       <c r="E27">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F27">
         <v>2.95</v>
@@ -2193,12 +4145,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>3.1712962962962958E-3</v>
+        <v>0.0031712962962963</v>
       </c>
       <c r="B28" s="1">
-        <v>0.44115740740740739</v>
+        <v>0.441157407407407</v>
       </c>
       <c r="C28">
         <v>70.19</v>
@@ -2261,21 +4213,21 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>3.2870370370370367E-3</v>
+        <v>0.00328703703703704</v>
       </c>
       <c r="B29" s="1">
-        <v>0.44127314814814816</v>
+        <v>0.441273148148148</v>
       </c>
       <c r="C29">
-        <v>70.569999999999993</v>
+        <v>70.57</v>
       </c>
       <c r="D29">
         <v>72.3</v>
       </c>
       <c r="E29">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F29">
         <v>2.97</v>
@@ -2299,7 +4251,7 @@
         <v>122.65</v>
       </c>
       <c r="M29">
-        <v>1257.8599999999999</v>
+        <v>1257.86</v>
       </c>
       <c r="N29">
         <v>2162.65</v>
@@ -2329,12 +4281,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>3.4027777777777784E-3</v>
+        <v>0.00340277777777778</v>
       </c>
       <c r="B30" s="1">
-        <v>0.44138888888888889</v>
+        <v>0.441388888888889</v>
       </c>
       <c r="C30">
         <v>70.22</v>
@@ -2367,10 +4319,10 @@
         <v>126.09</v>
       </c>
       <c r="M30">
-        <v>1220.8800000000001</v>
+        <v>1220.88</v>
       </c>
       <c r="N30">
-        <v>2099.0700000000002</v>
+        <v>2099.07</v>
       </c>
       <c r="O30">
         <v>3.37</v>
@@ -2397,18 +4349,18 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.5185185185185185E-3</v>
+        <v>0.00351851851851852</v>
       </c>
       <c r="B31" s="1">
-        <v>0.44150462962962966</v>
+        <v>0.44150462962963</v>
       </c>
       <c r="C31">
         <v>71.47</v>
       </c>
       <c r="D31">
-        <v>73.790000000000006</v>
+        <v>73.79</v>
       </c>
       <c r="E31">
         <v>5.27</v>
@@ -2447,7 +4399,7 @@
         <v>92.89</v>
       </c>
       <c r="Q31">
-        <v>36.020000000000003</v>
+        <v>36.02</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -2465,18 +4417,18 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.6342592592592594E-3</v>
+        <v>0.00363425925925926</v>
       </c>
       <c r="B32" s="1">
-        <v>0.44162037037037033</v>
+        <v>0.44162037037037</v>
       </c>
       <c r="C32">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="D32">
-        <v>71.959999999999994</v>
+        <v>71.96</v>
       </c>
       <c r="E32">
         <v>5.25</v>
@@ -2503,7 +4455,7 @@
         <v>120.92</v>
       </c>
       <c r="M32">
-        <v>1290.1199999999999</v>
+        <v>1290.12</v>
       </c>
       <c r="N32">
         <v>2218.11</v>
@@ -2533,15 +4485,15 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.7500000000000003E-3</v>
+        <v>0.00375</v>
       </c>
       <c r="B33" s="1">
-        <v>0.44173611111111111</v>
+        <v>0.441736111111111</v>
       </c>
       <c r="C33">
-        <v>71.260000000000005</v>
+        <v>71.26</v>
       </c>
       <c r="D33">
         <v>72.47</v>
@@ -2601,18 +4553,18 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.8657407407407408E-3</v>
+        <v>0.00386574074074074</v>
       </c>
       <c r="B34" s="1">
-        <v>0.44185185185185188</v>
+        <v>0.441851851851852</v>
       </c>
       <c r="C34">
         <v>73.77</v>
       </c>
       <c r="D34">
-        <v>75.790000000000006</v>
+        <v>75.79</v>
       </c>
       <c r="E34">
         <v>5.59</v>
@@ -2669,12 +4621,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.9814814814814817E-3</v>
+        <v>0.00398148148148148</v>
       </c>
       <c r="B35" s="1">
-        <v>0.44196759259259261</v>
+        <v>0.441967592592593</v>
       </c>
       <c r="C35">
         <v>76.41</v>
@@ -2737,12 +4689,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>4.0972222222222226E-3</v>
+        <v>0.00409722222222222</v>
       </c>
       <c r="B36" s="1">
-        <v>0.44208333333333333</v>
+        <v>0.442083333333333</v>
       </c>
       <c r="C36">
         <v>74.3</v>
@@ -2775,7 +4727,7 @@
         <v>123.46</v>
       </c>
       <c r="M36">
-        <v>1258.5899999999999</v>
+        <v>1258.59</v>
       </c>
       <c r="N36">
         <v>2163.9</v>
@@ -2805,18 +4757,18 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>4.2129629629629626E-3</v>
+        <v>0.00421296296296296</v>
       </c>
       <c r="B37" s="1">
-        <v>0.44219907407407405</v>
+        <v>0.442199074074074</v>
       </c>
       <c r="C37">
-        <v>70.739999999999995</v>
+        <v>70.74</v>
       </c>
       <c r="D37">
-        <v>73.150000000000006</v>
+        <v>73.15</v>
       </c>
       <c r="E37">
         <v>5.17</v>
@@ -2873,18 +4825,18 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>4.3287037037037035E-3</v>
+        <v>0.0043287037037037</v>
       </c>
       <c r="B38" s="1">
-        <v>0.44231481481481483</v>
+        <v>0.442314814814815</v>
       </c>
       <c r="C38">
-        <v>72.989999999999995</v>
+        <v>72.99</v>
       </c>
       <c r="D38">
-        <v>70.209999999999994</v>
+        <v>70.21</v>
       </c>
       <c r="E38">
         <v>5.13</v>
@@ -2941,12 +4893,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>4.4444444444444444E-3</v>
+        <v>0.00444444444444444</v>
       </c>
       <c r="B39" s="1">
-        <v>0.4424305555555556</v>
+        <v>0.442430555555556</v>
       </c>
       <c r="C39">
         <v>77.44</v>
@@ -2982,7 +4934,7 @@
         <v>1192.95</v>
       </c>
       <c r="N39">
-        <v>2051.0500000000002</v>
+        <v>2051.05</v>
       </c>
       <c r="O39">
         <v>3.97</v>
@@ -3009,12 +4961,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.5601851851851853E-3</v>
+        <v>0.00456018518518519</v>
       </c>
       <c r="B40" s="1">
-        <v>0.44254629629629627</v>
+        <v>0.442546296296296</v>
       </c>
       <c r="C40">
         <v>82.71</v>
@@ -3077,12 +5029,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.6759259259259263E-3</v>
+        <v>0.00467592592592593</v>
       </c>
       <c r="B41" s="1">
-        <v>0.44266203703703705</v>
+        <v>0.442662037037037</v>
       </c>
       <c r="C41">
         <v>83.55</v>
@@ -3109,7 +5061,7 @@
         <v>123</v>
       </c>
       <c r="K41">
-        <v>74.569999999999993</v>
+        <v>74.57</v>
       </c>
       <c r="L41">
         <v>120.53</v>
@@ -3130,7 +5082,7 @@
         <v>50.46</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -3148,12 +5100,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.7916666666666672E-3</v>
+        <v>0.00479166666666667</v>
       </c>
       <c r="B42" s="1">
-        <v>0.44277777777777777</v>
+        <v>0.442777777777778</v>
       </c>
       <c r="C42">
         <v>93.48</v>
@@ -3180,7 +5132,7 @@
         <v>122.2</v>
       </c>
       <c r="K42">
-        <v>69.599999999999994</v>
+        <v>69.6</v>
       </c>
       <c r="L42">
         <v>125.49</v>
@@ -3216,12 +5168,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.9074074074074072E-3</v>
+        <v>0.00490740740740741</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44289351851851855</v>
+        <v>0.442893518518519</v>
       </c>
       <c r="C43">
         <v>100.2</v>
@@ -3239,7 +5191,7 @@
         <v>59.38</v>
       </c>
       <c r="H43">
-        <v>297.64999999999998</v>
+        <v>297.65</v>
       </c>
       <c r="I43">
         <v>118.59</v>
@@ -3251,7 +5203,7 @@
         <v>62.59</v>
       </c>
       <c r="L43">
-        <v>130.38999999999999</v>
+        <v>130.39</v>
       </c>
       <c r="M43">
         <v>777.47</v>
@@ -3284,12 +5236,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>5.0231481481481481E-3</v>
+        <v>0.00502314814814815</v>
       </c>
       <c r="B44" s="1">
-        <v>0.44300925925925921</v>
+        <v>0.443009259259259</v>
       </c>
       <c r="C44">
         <v>104.56</v>
@@ -3301,7 +5253,7 @@
         <v>8.43</v>
       </c>
       <c r="F44">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G44">
         <v>61.09</v>
@@ -3325,7 +5277,7 @@
         <v>721.44</v>
       </c>
       <c r="N44">
-        <v>1240.3800000000001</v>
+        <v>1240.38</v>
       </c>
       <c r="O44">
         <v>5.16</v>
@@ -3352,12 +5304,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>5.138888888888889E-3</v>
+        <v>0.00513888888888889</v>
       </c>
       <c r="B45" s="1">
-        <v>0.44312499999999999</v>
+        <v>0.443125</v>
       </c>
       <c r="C45">
         <v>102.72</v>
@@ -3420,12 +5372,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>5.2546296296296299E-3</v>
+        <v>0.00525462962962963</v>
       </c>
       <c r="B46" s="1">
-        <v>0.44324074074074077</v>
+        <v>0.443240740740741</v>
       </c>
       <c r="C46">
         <v>99.74</v>
@@ -3437,7 +5389,7 @@
         <v>8.42</v>
       </c>
       <c r="F46">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G46">
         <v>63.19</v>
@@ -3446,7 +5398,7 @@
         <v>273.18</v>
       </c>
       <c r="I46">
-        <v>152.08000000000001</v>
+        <v>152.08</v>
       </c>
       <c r="J46">
         <v>129</v>
@@ -3461,7 +5413,7 @@
         <v>739.17</v>
       </c>
       <c r="N46">
-        <v>1270.8599999999999</v>
+        <v>1270.86</v>
       </c>
       <c r="O46">
         <v>5.27</v>
@@ -3488,12 +5440,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>5.37037037037037E-3</v>
+        <v>0.00537037037037037</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44335648148148149</v>
+        <v>0.443356481481481</v>
       </c>
       <c r="C47">
         <v>101.79</v>
@@ -3502,7 +5454,7 @@
         <v>86.39</v>
       </c>
       <c r="E47">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="F47">
         <v>5.12</v>
@@ -3556,12 +5508,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.4861111111111117E-3</v>
+        <v>0.00548611111111111</v>
       </c>
       <c r="B48" s="1">
-        <v>0.44347222222222221</v>
+        <v>0.443472222222222</v>
       </c>
       <c r="C48">
         <v>103.89</v>
@@ -3582,7 +5534,7 @@
         <v>255.29</v>
       </c>
       <c r="I48">
-        <v>160.30000000000001</v>
+        <v>160.3</v>
       </c>
       <c r="J48">
         <v>130</v>
@@ -3597,7 +5549,7 @@
         <v>659.18</v>
       </c>
       <c r="N48">
-        <v>1133.3399999999999</v>
+        <v>1133.34</v>
       </c>
       <c r="O48">
         <v>5.79</v>
@@ -3624,12 +5576,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.6018518518518518E-3</v>
+        <v>0.00560185185185185</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44358796296296293</v>
+        <v>0.443587962962963</v>
       </c>
       <c r="C49">
         <v>101.59</v>
@@ -3659,13 +5611,13 @@
         <v>61.41</v>
       </c>
       <c r="L49">
-        <v>138.11000000000001</v>
+        <v>138.11</v>
       </c>
       <c r="M49">
         <v>686.83</v>
       </c>
       <c r="N49">
-        <v>1180.8800000000001</v>
+        <v>1180.88</v>
       </c>
       <c r="O49">
         <v>5.6</v>
@@ -3692,12 +5644,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.7175925925925927E-3</v>
+        <v>0.00571759259259259</v>
       </c>
       <c r="B50" s="1">
-        <v>0.44370370370370371</v>
+        <v>0.443703703703704</v>
       </c>
       <c r="C50">
         <v>105.53</v>
@@ -3712,22 +5664,22 @@
         <v>5.32</v>
       </c>
       <c r="G50">
-        <v>64.209999999999994</v>
+        <v>64.21</v>
       </c>
       <c r="H50">
-        <v>265.77999999999997</v>
+        <v>265.78</v>
       </c>
       <c r="I50">
-        <v>162.19999999999999</v>
+        <v>162.2</v>
       </c>
       <c r="J50">
-        <v>130.38999999999999</v>
+        <v>130.39</v>
       </c>
       <c r="K50">
         <v>62</v>
       </c>
       <c r="L50">
-        <v>135.05000000000001</v>
+        <v>135.05</v>
       </c>
       <c r="M50">
         <v>680.23</v>
@@ -3760,12 +5712,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.8333333333333336E-3</v>
+        <v>0.00583333333333333</v>
       </c>
       <c r="B51" s="1">
-        <v>0.44381944444444449</v>
+        <v>0.443819444444444</v>
       </c>
       <c r="C51">
         <v>102.84</v>
@@ -3795,7 +5747,7 @@
         <v>62.41</v>
       </c>
       <c r="L51">
-        <v>134.61000000000001</v>
+        <v>134.61</v>
       </c>
       <c r="M51">
         <v>705.47</v>
@@ -3828,12 +5780,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.9490740740740745E-3</v>
+        <v>0.00594907407407407</v>
       </c>
       <c r="B52" s="1">
-        <v>0.44393518518518515</v>
+        <v>0.443935185185185</v>
       </c>
       <c r="C52">
         <v>101.07</v>
@@ -3848,10 +5800,10 @@
         <v>5.29</v>
       </c>
       <c r="G52">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="H52">
-        <v>275.29000000000002</v>
+        <v>275.29</v>
       </c>
       <c r="I52">
         <v>174.57</v>
@@ -3896,12 +5848,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>6.0648148148148145E-3</v>
+        <v>0.00606481481481481</v>
       </c>
       <c r="B53" s="1">
-        <v>0.44405092592592593</v>
+        <v>0.444050925925926</v>
       </c>
       <c r="C53">
         <v>105.73</v>
@@ -3919,7 +5871,7 @@
         <v>64.87</v>
       </c>
       <c r="H53">
-        <v>286.35000000000002</v>
+        <v>286.35</v>
       </c>
       <c r="I53">
         <v>169</v>
@@ -3931,7 +5883,7 @@
         <v>62</v>
       </c>
       <c r="L53">
-        <v>139.41999999999999</v>
+        <v>139.42</v>
       </c>
       <c r="M53">
         <v>654.04</v>
@@ -3964,12 +5916,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>6.1805555555555563E-3</v>
+        <v>0.00618055555555556</v>
       </c>
       <c r="B54" s="1">
-        <v>0.44416666666666665</v>
+        <v>0.444166666666667</v>
       </c>
       <c r="C54">
         <v>107.4</v>
@@ -3993,7 +5945,7 @@
         <v>171</v>
       </c>
       <c r="J54">
-        <v>131.61000000000001</v>
+        <v>131.61</v>
       </c>
       <c r="K54">
         <v>62</v>
@@ -4002,7 +5954,7 @@
         <v>139.57</v>
       </c>
       <c r="M54">
-        <v>641.80999999999995</v>
+        <v>641.81</v>
       </c>
       <c r="N54">
         <v>1103.47</v>
@@ -4032,12 +5984,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>6.2962962962962964E-3</v>
+        <v>0.0062962962962963</v>
       </c>
       <c r="B55" s="1">
-        <v>0.44428240740740743</v>
+        <v>0.444282407407407</v>
       </c>
       <c r="C55">
         <v>106.88</v>
@@ -4046,7 +5998,7 @@
         <v>88.55</v>
       </c>
       <c r="E55">
-        <v>9.4600000000000009</v>
+        <v>9.46</v>
       </c>
       <c r="F55">
         <v>5.5</v>
@@ -4061,19 +6013,19 @@
         <v>166.91</v>
       </c>
       <c r="J55">
-        <v>130.61000000000001</v>
+        <v>130.61</v>
       </c>
       <c r="K55">
         <v>62</v>
       </c>
       <c r="L55">
-        <v>136.91999999999999</v>
+        <v>136.92</v>
       </c>
       <c r="M55">
         <v>658.48</v>
       </c>
       <c r="N55">
-        <v>1132.1199999999999</v>
+        <v>1132.12</v>
       </c>
       <c r="O55">
         <v>5.94</v>
@@ -4082,7 +6034,7 @@
         <v>93.29</v>
       </c>
       <c r="Q55">
-        <v>38.409999999999997</v>
+        <v>38.41</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -4100,12 +6052,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>6.4120370370370364E-3</v>
+        <v>0.00641203703703704</v>
       </c>
       <c r="B56" s="1">
-        <v>0.4443981481481481</v>
+        <v>0.444398148148148</v>
       </c>
       <c r="C56">
         <v>106.26</v>
@@ -4120,16 +6072,16 @@
         <v>5.53</v>
       </c>
       <c r="G56">
-        <v>64.290000000000006</v>
+        <v>64.29</v>
       </c>
       <c r="H56">
-        <v>261.77999999999997</v>
+        <v>261.78</v>
       </c>
       <c r="I56">
         <v>162.97</v>
       </c>
       <c r="J56">
-        <v>130.88999999999999</v>
+        <v>130.89</v>
       </c>
       <c r="K56">
         <v>61.56</v>
@@ -4168,12 +6120,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.5277777777777782E-3</v>
+        <v>0.00652777777777778</v>
       </c>
       <c r="B57" s="1">
-        <v>0.44451388888888888</v>
+        <v>0.444513888888889</v>
       </c>
       <c r="C57">
         <v>109.12</v>
@@ -4182,7 +6134,7 @@
         <v>92.14</v>
       </c>
       <c r="E57">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="F57">
         <v>5.85</v>
@@ -4191,7 +6143,7 @@
         <v>65.12</v>
       </c>
       <c r="H57">
-        <v>257.77999999999997</v>
+        <v>257.78</v>
       </c>
       <c r="I57">
         <v>171.5</v>
@@ -4236,12 +6188,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.6435185185185182E-3</v>
+        <v>0.00664351851851852</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44462962962962965</v>
+        <v>0.44462962962963</v>
       </c>
       <c r="C58">
         <v>110.87</v>
@@ -4265,7 +6217,7 @@
         <v>169.37</v>
       </c>
       <c r="J58">
-        <v>131.38999999999999</v>
+        <v>131.39</v>
       </c>
       <c r="K58">
         <v>61</v>
@@ -4274,10 +6226,10 @@
         <v>142.22</v>
       </c>
       <c r="M58">
-        <v>605.70000000000005</v>
+        <v>605.7</v>
       </c>
       <c r="N58">
-        <v>1041.3900000000001</v>
+        <v>1041.39</v>
       </c>
       <c r="O58">
         <v>6.38</v>
@@ -4304,12 +6256,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.7592592592592591E-3</v>
+        <v>0.00675925925925926</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44474537037037037</v>
+        <v>0.44474537037037</v>
       </c>
       <c r="C59">
         <v>112.85</v>
@@ -4372,12 +6324,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.875E-3</v>
+        <v>0.006875</v>
       </c>
       <c r="B60" s="1">
-        <v>0.4448611111111111</v>
+        <v>0.444861111111111</v>
       </c>
       <c r="C60">
         <v>112.8</v>
@@ -4422,10 +6374,10 @@
         <v>97.03</v>
       </c>
       <c r="Q60">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="S60" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -4443,12 +6395,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.9907407407407409E-3</v>
+        <v>0.00699074074074074</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44497685185185182</v>
+        <v>0.444976851851852</v>
       </c>
       <c r="C61">
         <v>111.8</v>
@@ -4478,7 +6430,7 @@
         <v>61</v>
       </c>
       <c r="L61">
-        <v>138.86000000000001</v>
+        <v>138.86</v>
       </c>
       <c r="M61">
         <v>604.73</v>
@@ -4511,12 +6463,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>7.106481481481481E-3</v>
+        <v>0.00710648148148148</v>
       </c>
       <c r="B62" s="1">
-        <v>0.4450925925925926</v>
+        <v>0.445092592592593</v>
       </c>
       <c r="C62">
         <v>116.31</v>
@@ -4531,7 +6483,7 @@
         <v>6.24</v>
       </c>
       <c r="G62">
-        <v>65.930000000000007</v>
+        <v>65.93</v>
       </c>
       <c r="H62">
         <v>250.2</v>
@@ -4540,7 +6492,7 @@
         <v>180.29</v>
       </c>
       <c r="J62">
-        <v>133.80000000000001</v>
+        <v>133.8</v>
       </c>
       <c r="K62">
         <v>60.2</v>
@@ -4549,7 +6501,7 @@
         <v>139.82</v>
       </c>
       <c r="M62">
-        <v>580.41999999999996</v>
+        <v>580.42</v>
       </c>
       <c r="N62">
         <v>997.92</v>
@@ -4579,12 +6531,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>7.2222222222222228E-3</v>
+        <v>0.00722222222222222</v>
       </c>
       <c r="B63" s="1">
-        <v>0.44520833333333337</v>
+        <v>0.445208333333333</v>
       </c>
       <c r="C63">
         <v>117.18</v>
@@ -4599,7 +6551,7 @@
         <v>6.26</v>
       </c>
       <c r="G63">
-        <v>64.959999999999994</v>
+        <v>64.96</v>
       </c>
       <c r="H63">
         <v>245.68</v>
@@ -4647,12 +6599,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>7.3379629629629628E-3</v>
+        <v>0.00733796296296296</v>
       </c>
       <c r="B64" s="1">
-        <v>0.44532407407407404</v>
+        <v>0.445324074074074</v>
       </c>
       <c r="C64">
         <v>117.73</v>
@@ -4667,7 +6619,7 @@
         <v>6.29</v>
       </c>
       <c r="G64">
-        <v>65.569999999999993</v>
+        <v>65.57</v>
       </c>
       <c r="H64">
         <v>248.4</v>
@@ -4715,12 +6667,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>7.4537037037037028E-3</v>
+        <v>0.0074537037037037</v>
       </c>
       <c r="B65" s="1">
-        <v>0.44543981481481482</v>
+        <v>0.445439814814815</v>
       </c>
       <c r="C65">
         <v>118</v>
@@ -4750,10 +6702,10 @@
         <v>60.4</v>
       </c>
       <c r="L65">
-        <v>140.44999999999999</v>
+        <v>140.45</v>
       </c>
       <c r="M65">
-        <v>573.41999999999996</v>
+        <v>573.42</v>
       </c>
       <c r="N65">
         <v>985.88</v>
@@ -4768,7 +6720,7 @@
         <v>41.87</v>
       </c>
       <c r="S65" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -4786,12 +6738,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.5694444444444446E-3</v>
+        <v>0.00756944444444444</v>
       </c>
       <c r="B66" s="1">
-        <v>0.44555555555555554</v>
+        <v>0.445555555555556</v>
       </c>
       <c r="C66">
         <v>123.18</v>
@@ -4806,25 +6758,25 @@
         <v>6.68</v>
       </c>
       <c r="G66">
-        <v>65.540000000000006</v>
+        <v>65.54</v>
       </c>
       <c r="H66">
-        <v>256.39999999999998</v>
+        <v>256.4</v>
       </c>
       <c r="I66">
         <v>176.08</v>
       </c>
       <c r="J66">
-        <v>131.80000000000001</v>
+        <v>131.8</v>
       </c>
       <c r="K66">
         <v>60.2</v>
       </c>
       <c r="L66">
-        <v>142.33000000000001</v>
+        <v>142.33</v>
       </c>
       <c r="M66">
-        <v>536.80999999999995</v>
+        <v>536.81</v>
       </c>
       <c r="N66">
         <v>922.95</v>
@@ -4854,12 +6806,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.6851851851851847E-3</v>
+        <v>0.00768518518518518</v>
       </c>
       <c r="B67" s="1">
-        <v>0.44567129629629632</v>
+        <v>0.445671296296296</v>
       </c>
       <c r="C67">
         <v>127.87</v>
@@ -4880,7 +6832,7 @@
         <v>236.95</v>
       </c>
       <c r="I67">
-        <v>157.80000000000001</v>
+        <v>157.8</v>
       </c>
       <c r="J67">
         <v>129.24</v>
@@ -4922,15 +6874,15 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.8009259259259256E-3</v>
+        <v>0.00780092592592593</v>
       </c>
       <c r="B68" s="1">
-        <v>0.44578703703703698</v>
+        <v>0.445787037037037</v>
       </c>
       <c r="C68">
-        <v>133.38999999999999</v>
+        <v>133.39</v>
       </c>
       <c r="D68">
         <v>89.07</v>
@@ -4948,7 +6900,7 @@
         <v>228.87</v>
       </c>
       <c r="I68">
-        <v>148.05000000000001</v>
+        <v>148.05</v>
       </c>
       <c r="J68">
         <v>128</v>
@@ -4957,7 +6909,7 @@
         <v>57.61</v>
       </c>
       <c r="L68">
-        <v>141.91999999999999</v>
+        <v>141.92</v>
       </c>
       <c r="M68">
         <v>498.94</v>
@@ -4990,15 +6942,15 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.9166666666666673E-3</v>
+        <v>0.00791666666666667</v>
       </c>
       <c r="B69" s="1">
-        <v>0.44590277777777776</v>
+        <v>0.445902777777778</v>
       </c>
       <c r="C69">
-        <v>135.66999999999999</v>
+        <v>135.67</v>
       </c>
       <c r="D69">
         <v>90.17</v>
@@ -5019,7 +6971,7 @@
         <v>159.16</v>
       </c>
       <c r="J69">
-        <v>129.22999999999999</v>
+        <v>129.23</v>
       </c>
       <c r="K69">
         <v>57</v>
@@ -5058,12 +7010,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>8.0324074074074065E-3</v>
+        <v>0.00803240740740741</v>
       </c>
       <c r="B70" s="1">
-        <v>0.44601851851851854</v>
+        <v>0.446018518518519</v>
       </c>
       <c r="C70">
         <v>140.5</v>
@@ -5078,7 +7030,7 @@
         <v>7.64</v>
       </c>
       <c r="G70">
-        <v>64.489999999999995</v>
+        <v>64.49</v>
       </c>
       <c r="H70">
         <v>225</v>
@@ -5087,7 +7039,7 @@
         <v>164.98</v>
       </c>
       <c r="J70">
-        <v>130.16999999999999</v>
+        <v>130.17</v>
       </c>
       <c r="K70">
         <v>56.58</v>
@@ -5126,15 +7078,15 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>8.1481481481481474E-3</v>
+        <v>0.00814814814814815</v>
       </c>
       <c r="B71" s="1">
-        <v>0.44613425925925926</v>
+        <v>0.446134259259259</v>
       </c>
       <c r="C71">
-        <v>143.16999999999999</v>
+        <v>143.17</v>
       </c>
       <c r="D71">
         <v>90.07</v>
@@ -5161,7 +7113,7 @@
         <v>55.22</v>
       </c>
       <c r="L71">
-        <v>144.02000000000001</v>
+        <v>144.02</v>
       </c>
       <c r="M71">
         <v>450.3</v>
@@ -5194,12 +7146,12 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>8.2638888888888883E-3</v>
+        <v>0.00826388888888889</v>
       </c>
       <c r="B72" s="1">
-        <v>0.44625000000000004</v>
+        <v>0.44625</v>
       </c>
       <c r="C72">
         <v>145.09</v>
@@ -5223,7 +7175,7 @@
         <v>151.47</v>
       </c>
       <c r="J72">
-        <v>128.19999999999999</v>
+        <v>128.2</v>
       </c>
       <c r="K72">
         <v>54.8</v>
@@ -5262,12 +7214,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>8.3796296296296292E-3</v>
+        <v>0.00837962962962963</v>
       </c>
       <c r="B73" s="1">
-        <v>0.4463657407407407</v>
+        <v>0.446365740740741</v>
       </c>
       <c r="C73">
         <v>145.93</v>
@@ -5291,7 +7243,7 @@
         <v>163.97</v>
       </c>
       <c r="J73">
-        <v>129.58000000000001</v>
+        <v>129.58</v>
       </c>
       <c r="K73">
         <v>56.42</v>
@@ -5330,15 +7282,15 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>8.4953703703703701E-3</v>
+        <v>0.00849537037037037</v>
       </c>
       <c r="B74" s="1">
-        <v>0.44648148148148148</v>
+        <v>0.446481481481481</v>
       </c>
       <c r="C74">
-        <v>151.22999999999999</v>
+        <v>151.23</v>
       </c>
       <c r="D74">
         <v>91.06</v>
@@ -5356,7 +7308,7 @@
         <v>221.92</v>
       </c>
       <c r="I74">
-        <v>150.52000000000001</v>
+        <v>150.52</v>
       </c>
       <c r="J74">
         <v>127</v>
@@ -5377,10 +7329,10 @@
         <v>8.02</v>
       </c>
       <c r="P74">
-        <v>76.489999999999995</v>
+        <v>76.49</v>
       </c>
       <c r="Q74">
-        <v>39.770000000000003</v>
+        <v>39.77</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -5398,12 +7350,12 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>8.611111111111111E-3</v>
+        <v>0.00861111111111111</v>
       </c>
       <c r="B75" s="1">
-        <v>0.44659722222222226</v>
+        <v>0.446597222222222</v>
       </c>
       <c r="C75">
         <v>152.46</v>
@@ -5466,15 +7418,15 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>8.726851851851852E-3</v>
+        <v>0.00872685185185185</v>
       </c>
       <c r="B76" s="1">
-        <v>0.44671296296296298</v>
+        <v>0.446712962962963</v>
       </c>
       <c r="C76">
-        <v>154.05000000000001</v>
+        <v>154.05</v>
       </c>
       <c r="D76">
         <v>91.52</v>
@@ -5483,7 +7435,7 @@
         <v>14.1</v>
       </c>
       <c r="F76">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="G76">
         <v>62.69</v>
@@ -5492,7 +7444,7 @@
         <v>207.54</v>
       </c>
       <c r="I76">
-        <v>147.44999999999999</v>
+        <v>147.45</v>
       </c>
       <c r="J76">
         <v>126.38</v>
@@ -5510,7 +7462,7 @@
         <v>694.09</v>
       </c>
       <c r="O76">
-        <v>8.0399999999999991</v>
+        <v>8.04</v>
       </c>
       <c r="P76">
         <v>80.95</v>
@@ -5520,71 +7472,71 @@
       </c>
       <c r="U76" s="2">
         <f>AVERAGE(C67:C76)</f>
-        <v>142.93599999999998</v>
+        <v>142.936</v>
       </c>
       <c r="V76" s="2">
         <f t="shared" ref="V76:AI76" si="1">AVERAGE(D67:D76)</f>
-        <v>91.285999999999987</v>
+        <v>91.286</v>
       </c>
       <c r="W76" s="2">
         <f t="shared" si="1"/>
-        <v>13.047000000000001</v>
+        <v>13.047</v>
       </c>
       <c r="X76" s="2">
         <f t="shared" si="1"/>
-        <v>7.588000000000001</v>
+        <v>7.588</v>
       </c>
       <c r="Y76" s="2">
         <f t="shared" si="1"/>
-        <v>63.101999999999997</v>
+        <v>63.102</v>
       </c>
       <c r="Z76" s="2">
         <f t="shared" si="1"/>
-        <v>223.97200000000004</v>
+        <v>223.972</v>
       </c>
       <c r="AA76" s="2">
         <f t="shared" si="1"/>
-        <v>151.66200000000001</v>
+        <v>151.662</v>
       </c>
       <c r="AB76" s="2">
         <f t="shared" si="1"/>
-        <v>128.08199999999997</v>
+        <v>128.082</v>
       </c>
       <c r="AC76" s="2">
         <f t="shared" si="1"/>
-        <v>56.004999999999995</v>
+        <v>56.005</v>
       </c>
       <c r="AD76" s="2">
         <f t="shared" si="1"/>
-        <v>144.69300000000001</v>
+        <v>144.693</v>
       </c>
       <c r="AE76" s="2">
         <f t="shared" si="1"/>
-        <v>449.95200000000006</v>
+        <v>449.952</v>
       </c>
       <c r="AF76" s="2">
         <f t="shared" si="1"/>
-        <v>773.61099999999999</v>
+        <v>773.611</v>
       </c>
       <c r="AG76" s="2">
         <f t="shared" si="1"/>
-        <v>7.6440000000000001</v>
+        <v>7.644</v>
       </c>
       <c r="AH76" s="2">
         <f t="shared" si="1"/>
-        <v>81.215000000000003</v>
+        <v>81.215</v>
       </c>
       <c r="AI76" s="2">
         <f t="shared" si="1"/>
-        <v>48.320000000000007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>8.8425925925925911E-3</v>
+        <v>0.00884259259259259</v>
       </c>
       <c r="B77" s="1">
-        <v>0.4468287037037037</v>
+        <v>0.446828703703704</v>
       </c>
       <c r="C77">
         <v>155.4</v>
@@ -5605,7 +7557,7 @@
         <v>201.85</v>
       </c>
       <c r="I77">
-        <v>144.44999999999999</v>
+        <v>144.45</v>
       </c>
       <c r="J77">
         <v>126.62</v>
@@ -5647,12 +7599,12 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>8.9583333333333338E-3</v>
+        <v>0.00895833333333333</v>
       </c>
       <c r="B78" s="1">
-        <v>0.44694444444444442</v>
+        <v>0.446944444444444</v>
       </c>
       <c r="C78">
         <v>158.32</v>
@@ -5691,7 +7643,7 @@
         <v>670.1</v>
       </c>
       <c r="O78">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="P78">
         <v>78.61</v>
@@ -5715,12 +7667,12 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>9.0740740740740729E-3</v>
+        <v>0.00907407407407407</v>
       </c>
       <c r="B79" s="1">
-        <v>0.4470601851851852</v>
+        <v>0.447060185185185</v>
       </c>
       <c r="C79">
         <v>162.76</v>
@@ -5732,7 +7684,7 @@
         <v>15.42</v>
       </c>
       <c r="F79">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="G79">
         <v>62.27</v>
@@ -5768,75 +7720,75 @@
         <v>51.48</v>
       </c>
       <c r="S79" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="U79" s="2">
         <f>AVERAGE(C67:C79)</f>
-        <v>146.60307692307691</v>
+        <v>146.603076923077</v>
       </c>
       <c r="V79" s="2">
         <f t="shared" ref="V79:AI79" si="2">AVERAGE(D67:D79)</f>
-        <v>91.67923076923077</v>
+        <v>91.6792307692308</v>
       </c>
       <c r="W79" s="2">
         <f t="shared" si="2"/>
-        <v>13.444615384615386</v>
+        <v>13.4446153846154</v>
       </c>
       <c r="X79" s="2">
         <f t="shared" si="2"/>
-        <v>7.8200000000000012</v>
+        <v>7.82</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" si="2"/>
-        <v>62.898461538461532</v>
+        <v>62.8984615384615</v>
       </c>
       <c r="Z79" s="2">
         <f t="shared" si="2"/>
-        <v>219.28769230769234</v>
+        <v>219.287692307692</v>
       </c>
       <c r="AA79" s="2">
         <f t="shared" si="2"/>
-        <v>149.73153846153849</v>
+        <v>149.731538461538</v>
       </c>
       <c r="AB79" s="2">
         <f t="shared" si="2"/>
-        <v>127.84769230769228</v>
+        <v>127.847692307692</v>
       </c>
       <c r="AC79" s="2">
         <f t="shared" si="2"/>
-        <v>55.465384615384615</v>
+        <v>55.4653846153846</v>
       </c>
       <c r="AD79" s="2">
         <f t="shared" si="2"/>
-        <v>145.79846153846154</v>
+        <v>145.798461538462</v>
       </c>
       <c r="AE79" s="2">
         <f t="shared" si="2"/>
-        <v>435.14538461538461</v>
+        <v>435.145384615385</v>
       </c>
       <c r="AF79" s="2">
         <f t="shared" si="2"/>
-        <v>748.15230769230766</v>
+        <v>748.152307692308</v>
       </c>
       <c r="AG79" s="2">
         <f t="shared" si="2"/>
-        <v>7.8261538461538454</v>
+        <v>7.82615384615385</v>
       </c>
       <c r="AH79" s="2">
         <f t="shared" si="2"/>
-        <v>80.981538461538463</v>
+        <v>80.9815384615385</v>
       </c>
       <c r="AI79" s="2">
         <f t="shared" si="2"/>
-        <v>49.560769230769239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+        <v>49.5607692307692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
-        <v>9.1898148148148139E-3</v>
+        <v>0.00918981481481481</v>
       </c>
       <c r="B80" s="1">
-        <v>0.44717592592592598</v>
+        <v>0.447175925925926</v>
       </c>
       <c r="C80">
         <v>163.81</v>
@@ -5857,7 +7809,7 @@
         <v>238.37</v>
       </c>
       <c r="I80">
-        <v>137.91999999999999</v>
+        <v>137.92</v>
       </c>
       <c r="J80">
         <v>125</v>
@@ -5884,12 +7836,12 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>9.3055555555555548E-3</v>
+        <v>0.00930555555555555</v>
       </c>
       <c r="B81" s="1">
-        <v>0.44729166666666664</v>
+        <v>0.447291666666667</v>
       </c>
       <c r="C81">
         <v>150.57</v>
@@ -5907,7 +7859,7 @@
         <v>63.18</v>
       </c>
       <c r="H81">
-        <v>299.04000000000002</v>
+        <v>299.04</v>
       </c>
       <c r="I81">
         <v>152</v>
@@ -5937,15 +7889,15 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>9.4212962962962957E-3</v>
+        <v>0.0094212962962963</v>
       </c>
       <c r="B82" s="1">
-        <v>0.44740740740740742</v>
+        <v>0.447407407407407</v>
       </c>
       <c r="C82">
-        <v>139.91999999999999</v>
+        <v>139.92</v>
       </c>
       <c r="D82">
         <v>90.82</v>
@@ -5960,13 +7912,13 @@
         <v>63.32</v>
       </c>
       <c r="H82">
-        <v>307.64999999999998</v>
+        <v>307.65</v>
       </c>
       <c r="I82">
         <v>153.37</v>
       </c>
       <c r="J82">
-        <v>129.38999999999999</v>
+        <v>129.39</v>
       </c>
       <c r="K82">
         <v>66</v>
@@ -5981,7 +7933,7 @@
         <v>867.53</v>
       </c>
       <c r="O82">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="P82">
         <v>82.56</v>
@@ -5990,12 +7942,12 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>9.5370370370370366E-3</v>
+        <v>0.00953703703703704</v>
       </c>
       <c r="B83" s="1">
-        <v>0.44752314814814814</v>
+        <v>0.447523148148148</v>
       </c>
       <c r="C83">
         <v>133.68</v>
@@ -6019,7 +7971,7 @@
         <v>174.1</v>
       </c>
       <c r="J83">
-        <v>131.16999999999999</v>
+        <v>131.17</v>
       </c>
       <c r="K83">
         <v>66.78</v>
@@ -6028,7 +7980,7 @@
         <v>135.63</v>
       </c>
       <c r="M83">
-        <v>548.83000000000004</v>
+        <v>548.83</v>
       </c>
       <c r="N83">
         <v>943.61</v>
@@ -6040,18 +7992,18 @@
         <v>87.42</v>
       </c>
       <c r="Q83">
-        <v>39.909999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>39.91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>9.6527777777777775E-3</v>
+        <v>0.00965277777777778</v>
       </c>
       <c r="B84" s="1">
-        <v>0.44763888888888892</v>
+        <v>0.447638888888889</v>
       </c>
       <c r="C84">
-        <v>130.22999999999999</v>
+        <v>130.23</v>
       </c>
       <c r="D84">
         <v>88.02</v>
@@ -6096,12 +8048,12 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>9.7685185185185184E-3</v>
+        <v>0.00976851851851852</v>
       </c>
       <c r="B85" s="1">
-        <v>0.44775462962962959</v>
+        <v>0.44775462962963</v>
       </c>
       <c r="C85">
         <v>131.76</v>
@@ -6116,7 +8068,7 @@
         <v>6.96</v>
       </c>
       <c r="G85">
-        <v>65.209999999999994</v>
+        <v>65.21</v>
       </c>
       <c r="H85">
         <v>342.91</v>
@@ -6131,10 +8083,10 @@
         <v>67</v>
       </c>
       <c r="L85">
-        <v>139.22999999999999</v>
+        <v>139.23</v>
       </c>
       <c r="M85">
-        <v>546.41999999999996</v>
+        <v>546.42</v>
       </c>
       <c r="N85">
         <v>939.47</v>
@@ -6146,39 +8098,49 @@
         <v>88.1</v>
       </c>
       <c r="Q85">
-        <v>40.619999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>40.62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X19 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X19 2200 bosquet replay.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\25Sept2013_Xining_Physioflow_X17X21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9E9054-DA7B-46CC-A15E-9CBD40679DFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -159,21 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,344 +184,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -528,322 +207,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -855,7 +249,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,6 +274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -905,254 +299,251 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="80"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000856481481481482</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000972222222222222</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.00108796296296296</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.0012037037037037</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.00131944444444444</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.00143518518518519</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00155092592592593</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00178240740740741</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00189814814814815</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00201388888888889</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00212962962962963</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00224537037037037</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00236111111111111</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00247685185185185</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00259259259259259</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00270833333333333</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00282407407407407</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00293981481481481</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.00305555555555556</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.0031712962962963</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00328703703703704</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00340277777777778</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00351851851851852</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.00363425925925926</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00375</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00386574074074074</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00398148148148148</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00409722222222222</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.00421296296296296</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.0043287037037037</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00444444444444444</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00456018518518519</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00467592592592593</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00490740740740741</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00502314814814815</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00513888888888889</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00525462962962963</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00537037037037037</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00548611111111111</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00560185185185185</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00571759259259259</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00594907407407407</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00606481481481481</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.00618055555555556</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.0062962962962963</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00641203703703704</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00652777777777778</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00664351851851852</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00675925925925926</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.006875</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00699074074074074</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00710648148148148</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00722222222222222</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.00733796296296296</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.0074537037037037</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00756944444444444</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00768518518518518</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00780092592592593</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00791666666666667</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00803240740740741</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00814814814814815</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00826388888888889</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00837962962962963</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00849537037037037</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00861111111111111</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00872685185185185</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00884259259259259</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00895833333333333</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00907407407407407</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00918981481481481</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.00930555555555555</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.0094212962962963</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00953703703703704</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.00965277777777778</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.00976851851851852</c:v>
+                <c:pt idx="1">
+                  <c:v>7.4074074074074103E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5648148148148205E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7222222222222198E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0879629629629601E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2037037037037001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3194444444444399E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4351851851851899E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.55092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.66666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8981481481481501E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0138888888888901E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2453703703703698E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3611111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4768518518518499E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5925925925925899E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.70833333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.82407407407407E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.93981481481481E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2870370370370401E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5185185185185202E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6342592592592598E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8657407407407399E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9814814814814799E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.09722222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.21296296296296E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3287037037037001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4444444444444401E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5601851851851897E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6759259259259297E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.7916666666666698E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9074074074074098E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0231481481481498E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1388888888888899E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2546296296296299E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.37037037037037E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.48611111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.60185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7175925925925901E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.8333333333333301E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.9490740740740702E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.0648148148148102E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.1805555555555598E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.2962962962962998E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.4120370370370399E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.5277777777777799E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.64351851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.75925925925926E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.9907407407407401E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.1064814814814801E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.2222222222222202E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.3379629629629602E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4537037037037002E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.5694444444444403E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.6851851851851803E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.8009259259259299E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.9166666666666708E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.03240740740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.1481481481481492E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.2638888888888901E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.3796296296296292E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.4953703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.6111111111111093E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7268518518518502E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.8425925925925894E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.9583333333333303E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.0740740740740695E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.1898148148148104E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.3055555555555496E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.4212962962962991E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.53703703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.6527777777777792E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.7685185185185201E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,22 +558,22 @@
                   <c:v>6.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.61</c:v>
+                  <c:v>4.6100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.02</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.64</c:v>
+                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.84</c:v>
@@ -1191,7 +582,7 @@
                   <c:v>5.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.89</c:v>
+                  <c:v>4.8899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.21</c:v>
@@ -1227,13 +618,13 @@
                   <c:v>5.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.24</c:v>
@@ -1287,7 +678,7 @@
                   <c:v>8.42</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9.35</c:v>
@@ -1311,13 +702,13 @@
                   <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.46</c:v>
+                  <c:v>9.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.05</c:v>
+                  <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>10.23</c:v>
@@ -1407,6 +798,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0DA-4C46-A926-2D86D0C78DB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1416,7 +812,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="899173870"/>
         <c:axId val="411022732"/>
@@ -1428,6 +823,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1461,6 +857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="411022732"/>
@@ -1519,6 +916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="899173870"/>
@@ -1559,6 +957,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2126,7 +1525,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2140,14 +1539,20 @@
       <xdr:row>99</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2692400" y="15506700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2441,21 +1846,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76:E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +1986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="21:35">
+    <row r="5" spans="1:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -2603,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.437986111111111</v>
+        <v>0.43798611111111102</v>
       </c>
       <c r="C6">
-        <v>80.71</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="D6">
         <v>76.03</v>
@@ -2642,7 +2047,7 @@
         <v>1969.59</v>
       </c>
       <c r="O6">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="P6">
         <v>95.47</v>
@@ -2671,19 +2076,19 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000740740740740741</v>
+        <v>7.4074074074074103E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.438726851851852</v>
+        <v>0.43872685185185201</v>
       </c>
       <c r="C7">
-        <v>65.07</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="D7">
         <v>71.06</v>
       </c>
       <c r="E7">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F7">
         <v>2.68</v>
@@ -2701,7 +2106,7 @@
         <v>125</v>
       </c>
       <c r="K7">
-        <v>75.82</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="L7">
         <v>119.46</v>
@@ -2710,7 +2115,7 @@
         <v>1494.62</v>
       </c>
       <c r="N7">
-        <v>2569.72</v>
+        <v>2569.7199999999998</v>
       </c>
       <c r="O7">
         <v>3.19</v>
@@ -2739,10 +2144,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000856481481481482</v>
+        <v>8.5648148148148205E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.438842592592593</v>
+        <v>0.43884259259259301</v>
       </c>
       <c r="C8">
         <v>67.34</v>
@@ -2769,7 +2174,7 @@
         <v>124.64</v>
       </c>
       <c r="K8">
-        <v>73.18</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="L8">
         <v>121.41</v>
@@ -2778,7 +2183,7 @@
         <v>1374.55</v>
       </c>
       <c r="N8">
-        <v>2363.28</v>
+        <v>2363.2800000000002</v>
       </c>
       <c r="O8">
         <v>3.27</v>
@@ -2807,19 +2212,19 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000972222222222222</v>
+        <v>9.7222222222222198E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.438958333333333</v>
+        <v>0.43895833333333301</v>
       </c>
       <c r="C9">
-        <v>65.74</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="D9">
         <v>76.98</v>
       </c>
       <c r="E9">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F9">
         <v>2.94</v>
@@ -2875,10 +2280,10 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.00108796296296296</v>
+        <v>1.0879629629629601E-3</v>
       </c>
       <c r="B10" s="1">
-        <v>0.439074074074074</v>
+        <v>0.43907407407407401</v>
       </c>
       <c r="C10">
         <v>65.53</v>
@@ -2887,7 +2292,7 @@
         <v>76.56</v>
       </c>
       <c r="E10">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F10">
         <v>2.92</v>
@@ -2911,7 +2316,7 @@
         <v>126.53</v>
       </c>
       <c r="M10">
-        <v>1289.84</v>
+        <v>1289.8399999999999</v>
       </c>
       <c r="N10">
         <v>2217.64</v>
@@ -2943,7 +2348,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.0012037037037037</v>
+        <v>1.2037037037037001E-3</v>
       </c>
       <c r="B11" s="1">
         <v>0.439189814814815</v>
@@ -2967,7 +2372,7 @@
         <v>357.82</v>
       </c>
       <c r="I11">
-        <v>132.08</v>
+        <v>132.08000000000001</v>
       </c>
       <c r="J11">
         <v>125.36</v>
@@ -3011,7 +2416,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.00131944444444444</v>
+        <v>1.3194444444444399E-3</v>
       </c>
       <c r="B12" s="1">
         <v>0.439305555555556</v>
@@ -3020,10 +2425,10 @@
         <v>61.41</v>
       </c>
       <c r="D12">
-        <v>75.54</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="E12">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F12">
         <v>2.7</v>
@@ -3041,7 +2446,7 @@
         <v>125.6</v>
       </c>
       <c r="K12">
-        <v>70.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="L12">
         <v>124.37</v>
@@ -3079,7 +2484,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.00143518518518519</v>
+        <v>1.4351851851851899E-3</v>
       </c>
       <c r="B13" s="1">
         <v>0.439421296296296</v>
@@ -3088,7 +2493,7 @@
         <v>64.16</v>
       </c>
       <c r="D13">
-        <v>75.43</v>
+        <v>75.430000000000007</v>
       </c>
       <c r="E13">
         <v>4.84</v>
@@ -3147,7 +2552,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00155092592592593</v>
+        <v>1.55092592592593E-3</v>
       </c>
       <c r="B14" s="1">
         <v>0.439537037037037</v>
@@ -3195,7 +2600,7 @@
         <v>100.94</v>
       </c>
       <c r="Q14">
-        <v>39.55</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -3215,7 +2620,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00166666666666667</v>
+        <v>1.66666666666667E-3</v>
       </c>
       <c r="B15" s="1">
         <v>0.439652777777778</v>
@@ -3227,7 +2632,7 @@
         <v>74.86</v>
       </c>
       <c r="E15">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="F15">
         <v>2.85</v>
@@ -3254,7 +2659,7 @@
         <v>1313.74</v>
       </c>
       <c r="N15">
-        <v>2258.74</v>
+        <v>2258.7399999999998</v>
       </c>
       <c r="O15">
         <v>3.16</v>
@@ -3263,7 +2668,7 @@
         <v>100.15</v>
       </c>
       <c r="Q15">
-        <v>37.45</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -3283,7 +2688,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00178240740740741</v>
+        <v>1.7824074074074101E-3</v>
       </c>
       <c r="B16" s="1">
         <v>0.439768518518519</v>
@@ -3322,7 +2727,7 @@
         <v>1229.01</v>
       </c>
       <c r="N16">
-        <v>2113.05</v>
+        <v>2113.0500000000002</v>
       </c>
       <c r="O16">
         <v>3.35</v>
@@ -3331,7 +2736,7 @@
         <v>94.84</v>
       </c>
       <c r="Q16">
-        <v>37.84</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -3351,7 +2756,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00189814814814815</v>
+        <v>1.8981481481481501E-3</v>
       </c>
       <c r="B17" s="1">
         <v>0.439884259259259</v>
@@ -3419,7 +2824,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00201388888888889</v>
+        <v>2.0138888888888901E-3</v>
       </c>
       <c r="B18" s="1">
         <v>0.44</v>
@@ -3467,7 +2872,7 @@
         <v>94.46</v>
       </c>
       <c r="Q18">
-        <v>35.95</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -3487,7 +2892,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00212962962962963</v>
+        <v>2.1296296296296302E-3</v>
       </c>
       <c r="B19" s="1">
         <v>0.440115740740741</v>
@@ -3517,7 +2922,7 @@
         <v>123.91</v>
       </c>
       <c r="K19">
-        <v>74.18</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="L19">
         <v>119.76</v>
@@ -3526,7 +2931,7 @@
         <v>1399.23</v>
       </c>
       <c r="N19">
-        <v>2405.72</v>
+        <v>2405.7199999999998</v>
       </c>
       <c r="O19">
         <v>3.25</v>
@@ -3555,13 +2960,13 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00224537037037037</v>
+        <v>2.2453703703703698E-3</v>
       </c>
       <c r="B20" s="1">
         <v>0.440231481481481</v>
       </c>
       <c r="C20">
-        <v>70.68</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="D20">
         <v>70.84</v>
@@ -3623,7 +3028,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00236111111111111</v>
+        <v>2.3611111111111098E-3</v>
       </c>
       <c r="B21" s="1">
         <v>0.440347222222222</v>
@@ -3691,13 +3096,13 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00247685185185185</v>
+        <v>2.4768518518518499E-3</v>
       </c>
       <c r="B22" s="1">
         <v>0.440462962962963</v>
       </c>
       <c r="C22">
-        <v>66.76</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="D22">
         <v>74.77</v>
@@ -3721,7 +3126,7 @@
         <v>125.27</v>
       </c>
       <c r="K22">
-        <v>76.18</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="L22">
         <v>124.6</v>
@@ -3730,7 +3135,7 @@
         <v>1375.53</v>
       </c>
       <c r="N22">
-        <v>2364.97</v>
+        <v>2364.9699999999998</v>
       </c>
       <c r="O22">
         <v>3.45</v>
@@ -3739,7 +3144,7 @@
         <v>91.79</v>
       </c>
       <c r="Q22">
-        <v>39.45</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -3759,13 +3164,13 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00259259259259259</v>
+        <v>2.5925925925925899E-3</v>
       </c>
       <c r="B23" s="1">
         <v>0.440578703703704</v>
       </c>
       <c r="C23">
-        <v>65.74</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="D23">
         <v>72.23</v>
@@ -3827,7 +3232,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00270833333333333</v>
+        <v>2.70833333333333E-3</v>
       </c>
       <c r="B24" s="1">
         <v>0.440694444444444</v>
@@ -3895,7 +3300,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00282407407407407</v>
+        <v>2.82407407407407E-3</v>
       </c>
       <c r="B25" s="1">
         <v>0.440810185185185</v>
@@ -3950,43 +3355,43 @@
       </c>
       <c r="U25" s="2">
         <f>AVERAGE(C6:C25)</f>
-        <v>67.5275</v>
+        <v>67.527500000000003</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" ref="V25:AI25" si="0">AVERAGE(D6:D25)</f>
-        <v>73.896</v>
+        <v>73.896000000000001</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>4.988</v>
+        <v>4.9879999999999995</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="0"/>
-        <v>2.901</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="0"/>
-        <v>59.8125</v>
+        <v>59.812500000000014</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="0"/>
-        <v>387.2485</v>
+        <v>387.24850000000004</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="0"/>
-        <v>122.1865</v>
+        <v>122.18650000000002</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="0"/>
-        <v>124.3245</v>
+        <v>124.32450000000001</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="0"/>
-        <v>72.4285</v>
+        <v>72.428500000000014</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="0"/>
-        <v>123.5295</v>
+        <v>123.52949999999998</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="0"/>
@@ -3994,24 +3399,24 @@
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="0"/>
-        <v>2302.2035</v>
+        <v>2302.2035000000001</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="0"/>
-        <v>3.3455</v>
+        <v>3.3454999999999999</v>
       </c>
       <c r="AH25" s="2">
         <f t="shared" si="0"/>
-        <v>96.8915</v>
+        <v>96.891499999999994</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="0"/>
-        <v>39.7695</v>
+        <v>39.769500000000008</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00293981481481481</v>
+        <v>2.93981481481481E-3</v>
       </c>
       <c r="B26" s="1">
         <v>0.440925925925926</v>
@@ -4050,7 +3455,7 @@
         <v>1397.62</v>
       </c>
       <c r="N26">
-        <v>2402.95</v>
+        <v>2402.9499999999998</v>
       </c>
       <c r="O26">
         <v>3.58</v>
@@ -4079,19 +3484,19 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.00305555555555556</v>
+        <v>3.0555555555555601E-3</v>
       </c>
       <c r="B27" s="1">
         <v>0.441041666666667</v>
       </c>
       <c r="C27">
-        <v>71.51</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="D27">
         <v>70.81</v>
       </c>
       <c r="E27">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F27">
         <v>2.95</v>
@@ -4147,7 +3552,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.0031712962962963</v>
+        <v>3.1712962962963001E-3</v>
       </c>
       <c r="B28" s="1">
         <v>0.441157407407407</v>
@@ -4215,19 +3620,19 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00328703703703704</v>
+        <v>3.2870370370370401E-3</v>
       </c>
       <c r="B29" s="1">
         <v>0.441273148148148</v>
       </c>
       <c r="C29">
-        <v>70.57</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="D29">
         <v>72.3</v>
       </c>
       <c r="E29">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F29">
         <v>2.97</v>
@@ -4251,7 +3656,7 @@
         <v>122.65</v>
       </c>
       <c r="M29">
-        <v>1257.86</v>
+        <v>1257.8599999999999</v>
       </c>
       <c r="N29">
         <v>2162.65</v>
@@ -4283,7 +3688,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00340277777777778</v>
+        <v>3.4027777777777802E-3</v>
       </c>
       <c r="B30" s="1">
         <v>0.441388888888889</v>
@@ -4319,10 +3724,10 @@
         <v>126.09</v>
       </c>
       <c r="M30">
-        <v>1220.88</v>
+        <v>1220.8800000000001</v>
       </c>
       <c r="N30">
-        <v>2099.07</v>
+        <v>2099.0700000000002</v>
       </c>
       <c r="O30">
         <v>3.37</v>
@@ -4351,7 +3756,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00351851851851852</v>
+        <v>3.5185185185185202E-3</v>
       </c>
       <c r="B31" s="1">
         <v>0.44150462962963</v>
@@ -4360,7 +3765,7 @@
         <v>71.47</v>
       </c>
       <c r="D31">
-        <v>73.79</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="E31">
         <v>5.27</v>
@@ -4399,7 +3804,7 @@
         <v>92.89</v>
       </c>
       <c r="Q31">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -4419,16 +3824,16 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.00363425925925926</v>
+        <v>3.6342592592592598E-3</v>
       </c>
       <c r="B32" s="1">
         <v>0.44162037037037</v>
       </c>
       <c r="C32">
-        <v>73.04</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="D32">
-        <v>71.96</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="E32">
         <v>5.25</v>
@@ -4455,7 +3860,7 @@
         <v>120.92</v>
       </c>
       <c r="M32">
-        <v>1290.12</v>
+        <v>1290.1199999999999</v>
       </c>
       <c r="N32">
         <v>2218.11</v>
@@ -4487,13 +3892,13 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00375</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="B33" s="1">
         <v>0.441736111111111</v>
       </c>
       <c r="C33">
-        <v>71.26</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="D33">
         <v>72.47</v>
@@ -4555,7 +3960,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00386574074074074</v>
+        <v>3.8657407407407399E-3</v>
       </c>
       <c r="B34" s="1">
         <v>0.441851851851852</v>
@@ -4564,7 +3969,7 @@
         <v>73.77</v>
       </c>
       <c r="D34">
-        <v>75.79</v>
+        <v>75.790000000000006</v>
       </c>
       <c r="E34">
         <v>5.59</v>
@@ -4623,10 +4028,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00398148148148148</v>
+        <v>3.9814814814814799E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.441967592592593</v>
+        <v>0.44196759259259299</v>
       </c>
       <c r="C35">
         <v>76.41</v>
@@ -4691,7 +4096,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00409722222222222</v>
+        <v>4.09722222222222E-3</v>
       </c>
       <c r="B36" s="1">
         <v>0.442083333333333</v>
@@ -4727,7 +4132,7 @@
         <v>123.46</v>
       </c>
       <c r="M36">
-        <v>1258.59</v>
+        <v>1258.5899999999999</v>
       </c>
       <c r="N36">
         <v>2163.9</v>
@@ -4759,16 +4164,16 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.00421296296296296</v>
+        <v>4.21296296296296E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.442199074074074</v>
+        <v>0.44219907407407399</v>
       </c>
       <c r="C37">
-        <v>70.74</v>
+        <v>70.739999999999995</v>
       </c>
       <c r="D37">
-        <v>73.15</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="E37">
         <v>5.17</v>
@@ -4827,16 +4232,16 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.0043287037037037</v>
+        <v>4.3287037037037001E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.442314814814815</v>
+        <v>0.44231481481481499</v>
       </c>
       <c r="C38">
-        <v>72.99</v>
+        <v>72.989999999999995</v>
       </c>
       <c r="D38">
-        <v>70.21</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="E38">
         <v>5.13</v>
@@ -4895,10 +4300,10 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00444444444444444</v>
+        <v>4.4444444444444401E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.442430555555556</v>
+        <v>0.44243055555555599</v>
       </c>
       <c r="C39">
         <v>77.44</v>
@@ -4934,7 +4339,7 @@
         <v>1192.95</v>
       </c>
       <c r="N39">
-        <v>2051.05</v>
+        <v>2051.0500000000002</v>
       </c>
       <c r="O39">
         <v>3.97</v>
@@ -4963,10 +4368,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00456018518518519</v>
+        <v>4.5601851851851897E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.442546296296296</v>
+        <v>0.44254629629629599</v>
       </c>
       <c r="C40">
         <v>82.71</v>
@@ -5031,10 +4436,10 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00467592592592593</v>
+        <v>4.6759259259259297E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.442662037037037</v>
+        <v>0.44266203703703699</v>
       </c>
       <c r="C41">
         <v>83.55</v>
@@ -5061,7 +4466,7 @@
         <v>123</v>
       </c>
       <c r="K41">
-        <v>74.57</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="L41">
         <v>120.53</v>
@@ -5102,10 +4507,10 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00479166666666667</v>
+        <v>4.7916666666666698E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.442777777777778</v>
+        <v>0.44277777777777799</v>
       </c>
       <c r="C42">
         <v>93.48</v>
@@ -5132,7 +4537,7 @@
         <v>122.2</v>
       </c>
       <c r="K42">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="L42">
         <v>125.49</v>
@@ -5170,10 +4575,10 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00490740740740741</v>
+        <v>4.9074074074074098E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.442893518518519</v>
+        <v>0.44289351851851899</v>
       </c>
       <c r="C43">
         <v>100.2</v>
@@ -5191,7 +4596,7 @@
         <v>59.38</v>
       </c>
       <c r="H43">
-        <v>297.65</v>
+        <v>297.64999999999998</v>
       </c>
       <c r="I43">
         <v>118.59</v>
@@ -5203,7 +4608,7 @@
         <v>62.59</v>
       </c>
       <c r="L43">
-        <v>130.39</v>
+        <v>130.38999999999999</v>
       </c>
       <c r="M43">
         <v>777.47</v>
@@ -5238,10 +4643,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00502314814814815</v>
+        <v>5.0231481481481498E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.443009259259259</v>
+        <v>0.44300925925925899</v>
       </c>
       <c r="C44">
         <v>104.56</v>
@@ -5253,7 +4658,7 @@
         <v>8.43</v>
       </c>
       <c r="F44">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G44">
         <v>61.09</v>
@@ -5277,7 +4682,7 @@
         <v>721.44</v>
       </c>
       <c r="N44">
-        <v>1240.38</v>
+        <v>1240.3800000000001</v>
       </c>
       <c r="O44">
         <v>5.16</v>
@@ -5306,10 +4711,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00513888888888889</v>
+        <v>5.1388888888888899E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.443125</v>
+        <v>0.44312499999999999</v>
       </c>
       <c r="C45">
         <v>102.72</v>
@@ -5374,10 +4779,10 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00525462962962963</v>
+        <v>5.2546296296296299E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.443240740740741</v>
+        <v>0.44324074074074099</v>
       </c>
       <c r="C46">
         <v>99.74</v>
@@ -5389,7 +4794,7 @@
         <v>8.42</v>
       </c>
       <c r="F46">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G46">
         <v>63.19</v>
@@ -5398,7 +4803,7 @@
         <v>273.18</v>
       </c>
       <c r="I46">
-        <v>152.08</v>
+        <v>152.08000000000001</v>
       </c>
       <c r="J46">
         <v>129</v>
@@ -5413,7 +4818,7 @@
         <v>739.17</v>
       </c>
       <c r="N46">
-        <v>1270.86</v>
+        <v>1270.8599999999999</v>
       </c>
       <c r="O46">
         <v>5.27</v>
@@ -5442,10 +4847,10 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00537037037037037</v>
+        <v>5.37037037037037E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.443356481481481</v>
+        <v>0.44335648148148099</v>
       </c>
       <c r="C47">
         <v>101.79</v>
@@ -5454,7 +4859,7 @@
         <v>86.39</v>
       </c>
       <c r="E47">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F47">
         <v>5.12</v>
@@ -5510,10 +4915,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00548611111111111</v>
+        <v>5.48611111111111E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.443472222222222</v>
+        <v>0.44347222222222199</v>
       </c>
       <c r="C48">
         <v>103.89</v>
@@ -5534,7 +4939,7 @@
         <v>255.29</v>
       </c>
       <c r="I48">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="J48">
         <v>130</v>
@@ -5549,7 +4954,7 @@
         <v>659.18</v>
       </c>
       <c r="N48">
-        <v>1133.34</v>
+        <v>1133.3399999999999</v>
       </c>
       <c r="O48">
         <v>5.79</v>
@@ -5578,10 +4983,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00560185185185185</v>
+        <v>5.60185185185185E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.443587962962963</v>
+        <v>0.44358796296296299</v>
       </c>
       <c r="C49">
         <v>101.59</v>
@@ -5611,13 +5016,13 @@
         <v>61.41</v>
       </c>
       <c r="L49">
-        <v>138.11</v>
+        <v>138.11000000000001</v>
       </c>
       <c r="M49">
         <v>686.83</v>
       </c>
       <c r="N49">
-        <v>1180.88</v>
+        <v>1180.8800000000001</v>
       </c>
       <c r="O49">
         <v>5.6</v>
@@ -5646,10 +5051,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00571759259259259</v>
+        <v>5.7175925925925901E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.443703703703704</v>
+        <v>0.44370370370370399</v>
       </c>
       <c r="C50">
         <v>105.53</v>
@@ -5664,22 +5069,22 @@
         <v>5.32</v>
       </c>
       <c r="G50">
-        <v>64.21</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="H50">
-        <v>265.78</v>
+        <v>265.77999999999997</v>
       </c>
       <c r="I50">
-        <v>162.2</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="J50">
-        <v>130.39</v>
+        <v>130.38999999999999</v>
       </c>
       <c r="K50">
         <v>62</v>
       </c>
       <c r="L50">
-        <v>135.05</v>
+        <v>135.05000000000001</v>
       </c>
       <c r="M50">
         <v>680.23</v>
@@ -5714,10 +5119,10 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00583333333333333</v>
+        <v>5.8333333333333301E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.443819444444444</v>
+        <v>0.44381944444444399</v>
       </c>
       <c r="C51">
         <v>102.84</v>
@@ -5747,7 +5152,7 @@
         <v>62.41</v>
       </c>
       <c r="L51">
-        <v>134.61</v>
+        <v>134.61000000000001</v>
       </c>
       <c r="M51">
         <v>705.47</v>
@@ -5782,10 +5187,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00594907407407407</v>
+        <v>5.9490740740740702E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.443935185185185</v>
+        <v>0.44393518518518499</v>
       </c>
       <c r="C52">
         <v>101.07</v>
@@ -5800,10 +5205,10 @@
         <v>5.29</v>
       </c>
       <c r="G52">
-        <v>65.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="H52">
-        <v>275.29</v>
+        <v>275.29000000000002</v>
       </c>
       <c r="I52">
         <v>174.57</v>
@@ -5850,10 +5255,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00606481481481481</v>
+        <v>6.0648148148148102E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.444050925925926</v>
+        <v>0.44405092592592599</v>
       </c>
       <c r="C53">
         <v>105.73</v>
@@ -5871,7 +5276,7 @@
         <v>64.87</v>
       </c>
       <c r="H53">
-        <v>286.35</v>
+        <v>286.35000000000002</v>
       </c>
       <c r="I53">
         <v>169</v>
@@ -5883,7 +5288,7 @@
         <v>62</v>
       </c>
       <c r="L53">
-        <v>139.42</v>
+        <v>139.41999999999999</v>
       </c>
       <c r="M53">
         <v>654.04</v>
@@ -5918,10 +5323,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.00618055555555556</v>
+        <v>6.1805555555555598E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.444166666666667</v>
+        <v>0.44416666666666699</v>
       </c>
       <c r="C54">
         <v>107.4</v>
@@ -5945,7 +5350,7 @@
         <v>171</v>
       </c>
       <c r="J54">
-        <v>131.61</v>
+        <v>131.61000000000001</v>
       </c>
       <c r="K54">
         <v>62</v>
@@ -5954,7 +5359,7 @@
         <v>139.57</v>
       </c>
       <c r="M54">
-        <v>641.81</v>
+        <v>641.80999999999995</v>
       </c>
       <c r="N54">
         <v>1103.47</v>
@@ -5986,10 +5391,10 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.0062962962962963</v>
+        <v>6.2962962962962998E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.444282407407407</v>
+        <v>0.44428240740740699</v>
       </c>
       <c r="C55">
         <v>106.88</v>
@@ -5998,7 +5403,7 @@
         <v>88.55</v>
       </c>
       <c r="E55">
-        <v>9.46</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F55">
         <v>5.5</v>
@@ -6013,19 +5418,19 @@
         <v>166.91</v>
       </c>
       <c r="J55">
-        <v>130.61</v>
+        <v>130.61000000000001</v>
       </c>
       <c r="K55">
         <v>62</v>
       </c>
       <c r="L55">
-        <v>136.92</v>
+        <v>136.91999999999999</v>
       </c>
       <c r="M55">
         <v>658.48</v>
       </c>
       <c r="N55">
-        <v>1132.12</v>
+        <v>1132.1199999999999</v>
       </c>
       <c r="O55">
         <v>5.94</v>
@@ -6034,7 +5439,7 @@
         <v>93.29</v>
       </c>
       <c r="Q55">
-        <v>38.41</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -6054,10 +5459,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00641203703703704</v>
+        <v>6.4120370370370399E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.444398148148148</v>
+        <v>0.44439814814814799</v>
       </c>
       <c r="C56">
         <v>106.26</v>
@@ -6072,16 +5477,16 @@
         <v>5.53</v>
       </c>
       <c r="G56">
-        <v>64.29</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="H56">
-        <v>261.78</v>
+        <v>261.77999999999997</v>
       </c>
       <c r="I56">
         <v>162.97</v>
       </c>
       <c r="J56">
-        <v>130.89</v>
+        <v>130.88999999999999</v>
       </c>
       <c r="K56">
         <v>61.56</v>
@@ -6122,10 +5527,10 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00652777777777778</v>
+        <v>6.5277777777777799E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.444513888888889</v>
+        <v>0.44451388888888899</v>
       </c>
       <c r="C57">
         <v>109.12</v>
@@ -6134,7 +5539,7 @@
         <v>92.14</v>
       </c>
       <c r="E57">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="F57">
         <v>5.85</v>
@@ -6143,7 +5548,7 @@
         <v>65.12</v>
       </c>
       <c r="H57">
-        <v>257.78</v>
+        <v>257.77999999999997</v>
       </c>
       <c r="I57">
         <v>171.5</v>
@@ -6190,10 +5595,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00664351851851852</v>
+        <v>6.64351851851852E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44462962962963</v>
+        <v>0.44462962962962999</v>
       </c>
       <c r="C58">
         <v>110.87</v>
@@ -6217,7 +5622,7 @@
         <v>169.37</v>
       </c>
       <c r="J58">
-        <v>131.39</v>
+        <v>131.38999999999999</v>
       </c>
       <c r="K58">
         <v>61</v>
@@ -6226,10 +5631,10 @@
         <v>142.22</v>
       </c>
       <c r="M58">
-        <v>605.7</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="N58">
-        <v>1041.39</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="O58">
         <v>6.38</v>
@@ -6258,10 +5663,10 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00675925925925926</v>
+        <v>6.75925925925926E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44474537037037</v>
+        <v>0.44474537037036999</v>
       </c>
       <c r="C59">
         <v>112.85</v>
@@ -6326,10 +5731,10 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.006875</v>
+        <v>6.875E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.444861111111111</v>
+        <v>0.44486111111111099</v>
       </c>
       <c r="C60">
         <v>112.8</v>
@@ -6374,7 +5779,7 @@
         <v>97.03</v>
       </c>
       <c r="Q60">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="S60" t="s">
         <v>42</v>
@@ -6397,10 +5802,10 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00699074074074074</v>
+        <v>6.9907407407407401E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.444976851851852</v>
+        <v>0.44497685185185198</v>
       </c>
       <c r="C61">
         <v>111.8</v>
@@ -6430,7 +5835,7 @@
         <v>61</v>
       </c>
       <c r="L61">
-        <v>138.86</v>
+        <v>138.86000000000001</v>
       </c>
       <c r="M61">
         <v>604.73</v>
@@ -6465,10 +5870,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.00710648148148148</v>
+        <v>7.1064814814814801E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.445092592592593</v>
+        <v>0.44509259259259298</v>
       </c>
       <c r="C62">
         <v>116.31</v>
@@ -6483,7 +5888,7 @@
         <v>6.24</v>
       </c>
       <c r="G62">
-        <v>65.93</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="H62">
         <v>250.2</v>
@@ -6492,7 +5897,7 @@
         <v>180.29</v>
       </c>
       <c r="J62">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="K62">
         <v>60.2</v>
@@ -6501,7 +5906,7 @@
         <v>139.82</v>
       </c>
       <c r="M62">
-        <v>580.42</v>
+        <v>580.41999999999996</v>
       </c>
       <c r="N62">
         <v>997.92</v>
@@ -6533,10 +5938,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.00722222222222222</v>
+        <v>7.2222222222222202E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.445208333333333</v>
+        <v>0.44520833333333298</v>
       </c>
       <c r="C63">
         <v>117.18</v>
@@ -6551,7 +5956,7 @@
         <v>6.26</v>
       </c>
       <c r="G63">
-        <v>64.96</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="H63">
         <v>245.68</v>
@@ -6601,10 +6006,10 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.00733796296296296</v>
+        <v>7.3379629629629602E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.445324074074074</v>
+        <v>0.44532407407407398</v>
       </c>
       <c r="C64">
         <v>117.73</v>
@@ -6619,7 +6024,7 @@
         <v>6.29</v>
       </c>
       <c r="G64">
-        <v>65.57</v>
+        <v>65.569999999999993</v>
       </c>
       <c r="H64">
         <v>248.4</v>
@@ -6669,10 +6074,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.0074537037037037</v>
+        <v>7.4537037037037002E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.445439814814815</v>
+        <v>0.44543981481481498</v>
       </c>
       <c r="C65">
         <v>118</v>
@@ -6702,10 +6107,10 @@
         <v>60.4</v>
       </c>
       <c r="L65">
-        <v>140.45</v>
+        <v>140.44999999999999</v>
       </c>
       <c r="M65">
-        <v>573.42</v>
+        <v>573.41999999999996</v>
       </c>
       <c r="N65">
         <v>985.88</v>
@@ -6740,10 +6145,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00756944444444444</v>
+        <v>7.5694444444444403E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.445555555555556</v>
+        <v>0.44555555555555598</v>
       </c>
       <c r="C66">
         <v>123.18</v>
@@ -6758,25 +6163,25 @@
         <v>6.68</v>
       </c>
       <c r="G66">
-        <v>65.54</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="H66">
-        <v>256.4</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="I66">
         <v>176.08</v>
       </c>
       <c r="J66">
-        <v>131.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="K66">
         <v>60.2</v>
       </c>
       <c r="L66">
-        <v>142.33</v>
+        <v>142.33000000000001</v>
       </c>
       <c r="M66">
-        <v>536.81</v>
+        <v>536.80999999999995</v>
       </c>
       <c r="N66">
         <v>922.95</v>
@@ -6808,10 +6213,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00768518518518518</v>
+        <v>7.6851851851851803E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.445671296296296</v>
+        <v>0.44567129629629598</v>
       </c>
       <c r="C67">
         <v>127.87</v>
@@ -6832,7 +6237,7 @@
         <v>236.95</v>
       </c>
       <c r="I67">
-        <v>157.8</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="J67">
         <v>129.24</v>
@@ -6876,13 +6281,13 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00780092592592593</v>
+        <v>7.8009259259259299E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.445787037037037</v>
+        <v>0.44578703703703698</v>
       </c>
       <c r="C68">
-        <v>133.39</v>
+        <v>133.38999999999999</v>
       </c>
       <c r="D68">
         <v>89.07</v>
@@ -6900,7 +6305,7 @@
         <v>228.87</v>
       </c>
       <c r="I68">
-        <v>148.05</v>
+        <v>148.05000000000001</v>
       </c>
       <c r="J68">
         <v>128</v>
@@ -6909,7 +6314,7 @@
         <v>57.61</v>
       </c>
       <c r="L68">
-        <v>141.92</v>
+        <v>141.91999999999999</v>
       </c>
       <c r="M68">
         <v>498.94</v>
@@ -6944,13 +6349,13 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00791666666666667</v>
+        <v>7.9166666666666708E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.445902777777778</v>
+        <v>0.44590277777777798</v>
       </c>
       <c r="C69">
-        <v>135.67</v>
+        <v>135.66999999999999</v>
       </c>
       <c r="D69">
         <v>90.17</v>
@@ -6971,7 +6376,7 @@
         <v>159.16</v>
       </c>
       <c r="J69">
-        <v>129.23</v>
+        <v>129.22999999999999</v>
       </c>
       <c r="K69">
         <v>57</v>
@@ -7012,10 +6417,10 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.00803240740740741</v>
+        <v>8.03240740740741E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.446018518518519</v>
+        <v>0.44601851851851898</v>
       </c>
       <c r="C70">
         <v>140.5</v>
@@ -7030,7 +6435,7 @@
         <v>7.64</v>
       </c>
       <c r="G70">
-        <v>64.49</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="H70">
         <v>225</v>
@@ -7039,7 +6444,7 @@
         <v>164.98</v>
       </c>
       <c r="J70">
-        <v>130.17</v>
+        <v>130.16999999999999</v>
       </c>
       <c r="K70">
         <v>56.58</v>
@@ -7080,13 +6485,13 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00814814814814815</v>
+        <v>8.1481481481481492E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.446134259259259</v>
+        <v>0.44613425925925898</v>
       </c>
       <c r="C71">
-        <v>143.17</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="D71">
         <v>90.07</v>
@@ -7113,7 +6518,7 @@
         <v>55.22</v>
       </c>
       <c r="L71">
-        <v>144.02</v>
+        <v>144.02000000000001</v>
       </c>
       <c r="M71">
         <v>450.3</v>
@@ -7148,10 +6553,10 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00826388888888889</v>
+        <v>8.2638888888888901E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.44625</v>
+        <v>0.44624999999999998</v>
       </c>
       <c r="C72">
         <v>145.09</v>
@@ -7175,7 +6580,7 @@
         <v>151.47</v>
       </c>
       <c r="J72">
-        <v>128.2</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="K72">
         <v>54.8</v>
@@ -7216,10 +6621,10 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00837962962962963</v>
+        <v>8.3796296296296292E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.446365740740741</v>
+        <v>0.44636574074074098</v>
       </c>
       <c r="C73">
         <v>145.93</v>
@@ -7243,7 +6648,7 @@
         <v>163.97</v>
       </c>
       <c r="J73">
-        <v>129.58</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="K73">
         <v>56.42</v>
@@ -7284,13 +6689,13 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00849537037037037</v>
+        <v>8.4953703703703701E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.446481481481481</v>
+        <v>0.44648148148148098</v>
       </c>
       <c r="C74">
-        <v>151.23</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="D74">
         <v>91.06</v>
@@ -7308,7 +6713,7 @@
         <v>221.92</v>
       </c>
       <c r="I74">
-        <v>150.52</v>
+        <v>150.52000000000001</v>
       </c>
       <c r="J74">
         <v>127</v>
@@ -7329,10 +6734,10 @@
         <v>8.02</v>
       </c>
       <c r="P74">
-        <v>76.49</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="Q74">
-        <v>39.77</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -7352,10 +6757,10 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.00861111111111111</v>
+        <v>8.6111111111111093E-3</v>
       </c>
       <c r="B75" s="1">
-        <v>0.446597222222222</v>
+        <v>0.44659722222222198</v>
       </c>
       <c r="C75">
         <v>152.46</v>
@@ -7420,22 +6825,22 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.00872685185185185</v>
+        <v>8.7268518518518502E-3</v>
       </c>
       <c r="B76" s="1">
-        <v>0.446712962962963</v>
+        <v>0.44671296296296298</v>
       </c>
       <c r="C76">
-        <v>154.05</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="D76">
         <v>91.52</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <v>14.1</v>
       </c>
       <c r="F76">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G76">
         <v>62.69</v>
@@ -7444,7 +6849,7 @@
         <v>207.54</v>
       </c>
       <c r="I76">
-        <v>147.45</v>
+        <v>147.44999999999999</v>
       </c>
       <c r="J76">
         <v>126.38</v>
@@ -7462,7 +6867,7 @@
         <v>694.09</v>
       </c>
       <c r="O76">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="P76">
         <v>80.95</v>
@@ -7472,71 +6877,71 @@
       </c>
       <c r="U76" s="2">
         <f>AVERAGE(C67:C76)</f>
-        <v>142.936</v>
+        <v>142.93599999999998</v>
       </c>
       <c r="V76" s="2">
         <f t="shared" ref="V76:AI76" si="1">AVERAGE(D67:D76)</f>
-        <v>91.286</v>
+        <v>91.285999999999987</v>
       </c>
       <c r="W76" s="2">
         <f t="shared" si="1"/>
-        <v>13.047</v>
+        <v>13.047000000000001</v>
       </c>
       <c r="X76" s="2">
         <f t="shared" si="1"/>
-        <v>7.588</v>
+        <v>7.588000000000001</v>
       </c>
       <c r="Y76" s="2">
         <f t="shared" si="1"/>
-        <v>63.102</v>
+        <v>63.101999999999997</v>
       </c>
       <c r="Z76" s="2">
         <f t="shared" si="1"/>
-        <v>223.972</v>
+        <v>223.97200000000004</v>
       </c>
       <c r="AA76" s="2">
         <f t="shared" si="1"/>
-        <v>151.662</v>
+        <v>151.66200000000001</v>
       </c>
       <c r="AB76" s="2">
         <f t="shared" si="1"/>
-        <v>128.082</v>
+        <v>128.08199999999997</v>
       </c>
       <c r="AC76" s="2">
         <f t="shared" si="1"/>
-        <v>56.005</v>
+        <v>56.004999999999995</v>
       </c>
       <c r="AD76" s="2">
         <f t="shared" si="1"/>
-        <v>144.693</v>
+        <v>144.69300000000001</v>
       </c>
       <c r="AE76" s="2">
         <f t="shared" si="1"/>
-        <v>449.952</v>
+        <v>449.95200000000006</v>
       </c>
       <c r="AF76" s="2">
         <f t="shared" si="1"/>
-        <v>773.611</v>
+        <v>773.61099999999999</v>
       </c>
       <c r="AG76" s="2">
         <f t="shared" si="1"/>
-        <v>7.644</v>
+        <v>7.6440000000000001</v>
       </c>
       <c r="AH76" s="2">
         <f t="shared" si="1"/>
-        <v>81.215</v>
+        <v>81.215000000000003</v>
       </c>
       <c r="AI76" s="2">
         <f t="shared" si="1"/>
-        <v>48.32</v>
+        <v>48.320000000000007</v>
       </c>
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.00884259259259259</v>
+        <v>8.8425925925925894E-3</v>
       </c>
       <c r="B77" s="1">
-        <v>0.446828703703704</v>
+        <v>0.44682870370370398</v>
       </c>
       <c r="C77">
         <v>155.4</v>
@@ -7544,7 +6949,7 @@
       <c r="D77">
         <v>92.12</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <v>14.31</v>
       </c>
       <c r="F77">
@@ -7557,7 +6962,7 @@
         <v>201.85</v>
       </c>
       <c r="I77">
-        <v>144.45</v>
+        <v>144.44999999999999</v>
       </c>
       <c r="J77">
         <v>126.62</v>
@@ -7601,10 +7006,10 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.00895833333333333</v>
+        <v>8.9583333333333303E-3</v>
       </c>
       <c r="B78" s="1">
-        <v>0.446944444444444</v>
+        <v>0.44694444444444398</v>
       </c>
       <c r="C78">
         <v>158.32</v>
@@ -7612,7 +7017,7 @@
       <c r="D78">
         <v>92.09</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <v>14.58</v>
       </c>
       <c r="F78">
@@ -7643,7 +7048,7 @@
         <v>670.1</v>
       </c>
       <c r="O78">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P78">
         <v>78.61</v>
@@ -7669,10 +7074,10 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.00907407407407407</v>
+        <v>9.0740740740740695E-3</v>
       </c>
       <c r="B79" s="1">
-        <v>0.447060185185185</v>
+        <v>0.44706018518518498</v>
       </c>
       <c r="C79">
         <v>162.76</v>
@@ -7680,11 +7085,11 @@
       <c r="D79">
         <v>94.76</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>15.42</v>
       </c>
       <c r="F79">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="G79">
         <v>62.27</v>
@@ -7724,71 +7129,71 @@
       </c>
       <c r="U79" s="2">
         <f>AVERAGE(C67:C79)</f>
-        <v>146.603076923077</v>
+        <v>146.60307692307691</v>
       </c>
       <c r="V79" s="2">
         <f t="shared" ref="V79:AI79" si="2">AVERAGE(D67:D79)</f>
-        <v>91.6792307692308</v>
+        <v>91.67923076923077</v>
       </c>
       <c r="W79" s="2">
         <f t="shared" si="2"/>
-        <v>13.4446153846154</v>
+        <v>13.444615384615386</v>
       </c>
       <c r="X79" s="2">
         <f t="shared" si="2"/>
-        <v>7.82</v>
+        <v>7.8200000000000012</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" si="2"/>
-        <v>62.8984615384615</v>
+        <v>62.898461538461532</v>
       </c>
       <c r="Z79" s="2">
         <f t="shared" si="2"/>
-        <v>219.287692307692</v>
+        <v>219.28769230769234</v>
       </c>
       <c r="AA79" s="2">
         <f t="shared" si="2"/>
-        <v>149.731538461538</v>
+        <v>149.73153846153849</v>
       </c>
       <c r="AB79" s="2">
         <f t="shared" si="2"/>
-        <v>127.847692307692</v>
+        <v>127.84769230769228</v>
       </c>
       <c r="AC79" s="2">
         <f t="shared" si="2"/>
-        <v>55.4653846153846</v>
+        <v>55.465384615384615</v>
       </c>
       <c r="AD79" s="2">
         <f t="shared" si="2"/>
-        <v>145.798461538462</v>
+        <v>145.79846153846154</v>
       </c>
       <c r="AE79" s="2">
         <f t="shared" si="2"/>
-        <v>435.145384615385</v>
+        <v>435.14538461538461</v>
       </c>
       <c r="AF79" s="2">
         <f t="shared" si="2"/>
-        <v>748.152307692308</v>
+        <v>748.15230769230766</v>
       </c>
       <c r="AG79" s="2">
         <f t="shared" si="2"/>
-        <v>7.82615384615385</v>
+        <v>7.8261538461538454</v>
       </c>
       <c r="AH79" s="2">
         <f t="shared" si="2"/>
-        <v>80.9815384615385</v>
+        <v>80.981538461538463</v>
       </c>
       <c r="AI79" s="2">
         <f t="shared" si="2"/>
-        <v>49.5607692307692</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>49.560769230769239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.00918981481481481</v>
+        <v>9.1898148148148104E-3</v>
       </c>
       <c r="B80" s="1">
-        <v>0.447175925925926</v>
+        <v>0.44717592592592598</v>
       </c>
       <c r="C80">
         <v>163.81</v>
@@ -7809,7 +7214,7 @@
         <v>238.37</v>
       </c>
       <c r="I80">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="J80">
         <v>125</v>
@@ -7838,10 +7243,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>0.00930555555555555</v>
+        <v>9.3055555555555496E-3</v>
       </c>
       <c r="B81" s="1">
-        <v>0.447291666666667</v>
+        <v>0.44729166666666698</v>
       </c>
       <c r="C81">
         <v>150.57</v>
@@ -7859,7 +7264,7 @@
         <v>63.18</v>
       </c>
       <c r="H81">
-        <v>299.04</v>
+        <v>299.04000000000002</v>
       </c>
       <c r="I81">
         <v>152</v>
@@ -7891,13 +7296,13 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>0.0094212962962963</v>
+        <v>9.4212962962962991E-3</v>
       </c>
       <c r="B82" s="1">
-        <v>0.447407407407407</v>
+        <v>0.44740740740740698</v>
       </c>
       <c r="C82">
-        <v>139.92</v>
+        <v>139.91999999999999</v>
       </c>
       <c r="D82">
         <v>90.82</v>
@@ -7912,13 +7317,13 @@
         <v>63.32</v>
       </c>
       <c r="H82">
-        <v>307.65</v>
+        <v>307.64999999999998</v>
       </c>
       <c r="I82">
         <v>153.37</v>
       </c>
       <c r="J82">
-        <v>129.39</v>
+        <v>129.38999999999999</v>
       </c>
       <c r="K82">
         <v>66</v>
@@ -7933,7 +7338,7 @@
         <v>867.53</v>
       </c>
       <c r="O82">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="P82">
         <v>82.56</v>
@@ -7944,10 +7349,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>0.00953703703703704</v>
+        <v>9.53703703703704E-3</v>
       </c>
       <c r="B83" s="1">
-        <v>0.447523148148148</v>
+        <v>0.44752314814814798</v>
       </c>
       <c r="C83">
         <v>133.68</v>
@@ -7971,7 +7376,7 @@
         <v>174.1</v>
       </c>
       <c r="J83">
-        <v>131.17</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="K83">
         <v>66.78</v>
@@ -7980,7 +7385,7 @@
         <v>135.63</v>
       </c>
       <c r="M83">
-        <v>548.83</v>
+        <v>548.83000000000004</v>
       </c>
       <c r="N83">
         <v>943.61</v>
@@ -7992,18 +7397,18 @@
         <v>87.42</v>
       </c>
       <c r="Q83">
-        <v>39.91</v>
+        <v>39.909999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>0.00965277777777778</v>
+        <v>9.6527777777777792E-3</v>
       </c>
       <c r="B84" s="1">
-        <v>0.447638888888889</v>
+        <v>0.44763888888888897</v>
       </c>
       <c r="C84">
-        <v>130.23</v>
+        <v>130.22999999999999</v>
       </c>
       <c r="D84">
         <v>88.02</v>
@@ -8050,10 +7455,10 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>0.00976851851851852</v>
+        <v>9.7685185185185201E-3</v>
       </c>
       <c r="B85" s="1">
-        <v>0.44775462962963</v>
+        <v>0.44775462962962997</v>
       </c>
       <c r="C85">
         <v>131.76</v>
@@ -8068,7 +7473,7 @@
         <v>6.96</v>
       </c>
       <c r="G85">
-        <v>65.21</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="H85">
         <v>342.91</v>
@@ -8083,10 +7488,10 @@
         <v>67</v>
       </c>
       <c r="L85">
-        <v>139.23</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="M85">
-        <v>546.42</v>
+        <v>546.41999999999996</v>
       </c>
       <c r="N85">
         <v>939.47</v>
@@ -8098,49 +7503,40 @@
         <v>88.1</v>
       </c>
       <c r="Q85">
-        <v>40.62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>40.619999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>